--- a/data/hotels_by_city/Houston/Houston_shard_226.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_226.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="373">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d107956-Reviews-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
   </si>
   <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Extended-Stay-America.h79458.Hotel-Information?chkin=7%2F15%2F2018&amp;chkout=7%2F16%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1530894035259&amp;cancellable=false&amp;regionId=1503&amp;vip=false&amp;c=e98fba5a-c7f1-4057-bffd-b78d049030a8&amp;mctc=9&amp;exp_dp=61.73&amp;exp_ts=1530894041560&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,1021 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r553089256-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107956</t>
+  </si>
+  <si>
+    <t>553089256</t>
+  </si>
+  <si>
+    <t>01/10/2018</t>
+  </si>
+  <si>
+    <t>Extended Stay America Houston NW</t>
+  </si>
+  <si>
+    <t>Awesome hotel, great people, and the monthly rate was absolutely outstanding.  The staff was always very helpful and accommodating.  The manager, Krissy took the time to know me personally and super responsive to all of my requests.  I would highly recommend the hotel to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded January 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2018</t>
+  </si>
+  <si>
+    <t>Awesome hotel, great people, and the monthly rate was absolutely outstanding.  The staff was always very helpful and accommodating.  The manager, Krissy took the time to know me personally and super responsive to all of my requests.  I would highly recommend the hotel to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r549520393-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>549520393</t>
+  </si>
+  <si>
+    <t>12/27/2017</t>
+  </si>
+  <si>
+    <t>Nice Place to Stay</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay at this hotel, other than the slow internet, everything was great...Bobby and every other staff made my stay a very comfortable one. They were ever ready to help in whatever way they can. I thank you all.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded December 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2017</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay at this hotel, other than the slow internet, everything was great...Bobby and every other staff made my stay a very comfortable one. They were ever ready to help in whatever way they can. I thank you all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r543618030-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>543618030</t>
+  </si>
+  <si>
+    <t>11/27/2017</t>
+  </si>
+  <si>
+    <t>I would stay here again, but only if other options are limited.</t>
+  </si>
+  <si>
+    <t>The hotel was okay. I would stay here again, to be sure; so keep that in mind when you read my review. My hotel reviews are judged on three primary points: is the hotel clean? Quiet? Is the bed comfortable?
+Cleanliness leaves a lot to be desired here. While my room was tidy, there were remnants of past guests under the bed (dirty underwear, dirt, coins, etc.). There was also a can lid under the trash can; the top of the refrigerator was disgustingly dirty, and the cabinets were all dusty. I asked that these issues be addressed from minutes after I checked into the room; and continued to ask daily for the first week of my stay – but this was never actually addressed. Sure, they came and changed my towels, but no one ever cleaned up the nastiness.
+I think it is important to note, although there were issues with lazy housekeeping practices and lack of effective management, I did not see any pests or bugs at all (and I’m pretty thorough).
+There is some construction going on, which is fine – it is good to see them improving; but the fact they closed a fire exit without notifying anyone in advance was rather concerning. Keeping the trash bin in the hallway, from which the odor would make it into my room, was short sighted and disgusting. I also have a problem with finding used needles and used...The hotel was okay. I would stay here again, to be sure; so keep that in mind when you read my review. My hotel reviews are judged on three primary points: is the hotel clean? Quiet? Is the bed comfortable?Cleanliness leaves a lot to be desired here. While my room was tidy, there were remnants of past guests under the bed (dirty underwear, dirt, coins, etc.). There was also a can lid under the trash can; the top of the refrigerator was disgustingly dirty, and the cabinets were all dusty. I asked that these issues be addressed from minutes after I checked into the room; and continued to ask daily for the first week of my stay – but this was never actually addressed. Sure, they came and changed my towels, but no one ever cleaned up the nastiness.I think it is important to note, although there were issues with lazy housekeeping practices and lack of effective management, I did not see any pests or bugs at all (and I’m pretty thorough).There is some construction going on, which is fine – it is good to see them improving; but the fact they closed a fire exit without notifying anyone in advance was rather concerning. Keeping the trash bin in the hallway, from which the odor would make it into my room, was short sighted and disgusting. I also have a problem with finding used needles and used diapers in the hotel parking area – though they were cleaned up within a couple of days; and this is more a reflection on the other guests than on the hotel itself (though anything such as this should have been cleaned within hours, not days).The hotel was remarkably quiet, which is a plus; but the bed was like sleeping on a stone tablet. When I checked the mattress, I did note it appeared new – which given the cleanliness notes above, is a big plus.I will also comment that the water pressure in the shower was downright pathetic. I can understand and appreciate the green approach with regards to water conservation, but the shower is borderline ineffective. It took three times longer to rinse off than normal, which hardly helps conserve water.Their “free” WIFI is equally sad. I’ve been on dial-up connections in sub-Saharan Africa with better speed and less drop-outs. They charge for “premium” internet speeds, and therefore make their free option so miserable as to leave their guests no choice but to upgrade (hmm, sounds like the current warnings about keeping net neutrality). I used it primarily for e-mail only; for web browsing, I just tethered to my mobile phone – it was faster.Lastly, their claims for “breakfast included” are overstated. They provide coffee and a few dry cereal bars. There is no “breakfast included”, despite their claims to the contrary.So I would stay here again, but it would certainly not be my first choice. If I found another hotel with similar marks for cleanliness, but higher marks for comfort, I would strongly consider it – even if it means paying more.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded November 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2017</t>
+  </si>
+  <si>
+    <t>The hotel was okay. I would stay here again, to be sure; so keep that in mind when you read my review. My hotel reviews are judged on three primary points: is the hotel clean? Quiet? Is the bed comfortable?
+Cleanliness leaves a lot to be desired here. While my room was tidy, there were remnants of past guests under the bed (dirty underwear, dirt, coins, etc.). There was also a can lid under the trash can; the top of the refrigerator was disgustingly dirty, and the cabinets were all dusty. I asked that these issues be addressed from minutes after I checked into the room; and continued to ask daily for the first week of my stay – but this was never actually addressed. Sure, they came and changed my towels, but no one ever cleaned up the nastiness.
+I think it is important to note, although there were issues with lazy housekeeping practices and lack of effective management, I did not see any pests or bugs at all (and I’m pretty thorough).
+There is some construction going on, which is fine – it is good to see them improving; but the fact they closed a fire exit without notifying anyone in advance was rather concerning. Keeping the trash bin in the hallway, from which the odor would make it into my room, was short sighted and disgusting. I also have a problem with finding used needles and used...The hotel was okay. I would stay here again, to be sure; so keep that in mind when you read my review. My hotel reviews are judged on three primary points: is the hotel clean? Quiet? Is the bed comfortable?Cleanliness leaves a lot to be desired here. While my room was tidy, there were remnants of past guests under the bed (dirty underwear, dirt, coins, etc.). There was also a can lid under the trash can; the top of the refrigerator was disgustingly dirty, and the cabinets were all dusty. I asked that these issues be addressed from minutes after I checked into the room; and continued to ask daily for the first week of my stay – but this was never actually addressed. Sure, they came and changed my towels, but no one ever cleaned up the nastiness.I think it is important to note, although there were issues with lazy housekeeping practices and lack of effective management, I did not see any pests or bugs at all (and I’m pretty thorough).There is some construction going on, which is fine – it is good to see them improving; but the fact they closed a fire exit without notifying anyone in advance was rather concerning. Keeping the trash bin in the hallway, from which the odor would make it into my room, was short sighted and disgusting. I also have a problem with finding used needles and used diapers in the hotel parking area – though they were cleaned up within a couple of days; and this is more a reflection on the other guests than on the hotel itself (though anything such as this should have been cleaned within hours, not days).The hotel was remarkably quiet, which is a plus; but the bed was like sleeping on a stone tablet. When I checked the mattress, I did note it appeared new – which given the cleanliness notes above, is a big plus.I will also comment that the water pressure in the shower was downright pathetic. I can understand and appreciate the green approach with regards to water conservation, but the shower is borderline ineffective. It took three times longer to rinse off than normal, which hardly helps conserve water.Their “free” WIFI is equally sad. I’ve been on dial-up connections in sub-Saharan Africa with better speed and less drop-outs. They charge for “premium” internet speeds, and therefore make their free option so miserable as to leave their guests no choice but to upgrade (hmm, sounds like the current warnings about keeping net neutrality). I used it primarily for e-mail only; for web browsing, I just tethered to my mobile phone – it was faster.Lastly, their claims for “breakfast included” are overstated. They provide coffee and a few dry cereal bars. There is no “breakfast included”, despite their claims to the contrary.So I would stay here again, but it would certainly not be my first choice. If I found another hotel with similar marks for cleanliness, but higher marks for comfort, I would strongly consider it – even if it means paying more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r506662374-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>506662374</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>Could be better</t>
+  </si>
+  <si>
+    <t>I was disappointed in the service as the copy machine wasn't working and I couldn't use the card I wanted.  I also had to wait for someone to show up at the desk to unlock the lobby door.  The hotel had a stale odor, and the room didn't have a coffee pot or phone.  The guest wifi connection was not working although we were provided with the password to use the admin's wifi.  The coffee bar in the lobby ran out of cups and the staff said there weren't any more cups and made no effort to correct the situation.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded July 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2017</t>
+  </si>
+  <si>
+    <t>I was disappointed in the service as the copy machine wasn't working and I couldn't use the card I wanted.  I also had to wait for someone to show up at the desk to unlock the lobby door.  The hotel had a stale odor, and the room didn't have a coffee pot or phone.  The guest wifi connection was not working although we were provided with the password to use the admin's wifi.  The coffee bar in the lobby ran out of cups and the staff said there weren't any more cups and made no effort to correct the situation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r532509359-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>532509359</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Really nice</t>
+  </si>
+  <si>
+    <t>Krissy Hudson was great at recommending this place. Very professional and attentive. She does need better support in the evening/overnight. But those shifts are hard to fill and the staff that is here is kind.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded October 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2017</t>
+  </si>
+  <si>
+    <t>Krissy Hudson was great at recommending this place. Very professional and attentive. She does need better support in the evening/overnight. But those shifts are hard to fill and the staff that is here is kind.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r503381421-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>503381421</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>complain</t>
+  </si>
+  <si>
+    <t>The facility has the potentials of being a very nice place. the rooms has plenty of space. Some the work that is needed is repairing of stoves, air conditioner units, housekeeping staff.  Otherwise. This would be a nice placeMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>The facility has the potentials of being a very nice place. the rooms has plenty of space. Some the work that is needed is repairing of stoves, air conditioner units, housekeeping staff.  Otherwise. This would be a nice placeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r489752401-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>489752401</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel, loved the BIG room!</t>
+  </si>
+  <si>
+    <t>My reason for my stay was because of the Tax Day flood, my stay was great! I loved my huge suite, had a kitchenette, TV, sofa, recliner and two queen beds. I really like swimming, wish the pool had been open, but not the hotels fault. Breakfast was muffins, breakfast bars, coffee etc. (just normal breakfast).  My complaints were the TV just had too little channels  :(  and people complained about our dog (but I guess this was our fault). But, overall, great hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded June 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2017</t>
+  </si>
+  <si>
+    <t>My reason for my stay was because of the Tax Day flood, my stay was great! I loved my huge suite, had a kitchenette, TV, sofa, recliner and two queen beds. I really like swimming, wish the pool had been open, but not the hotels fault. Breakfast was muffins, breakfast bars, coffee etc. (just normal breakfast).  My complaints were the TV just had too little channels  :(  and people complained about our dog (but I guess this was our fault). But, overall, great hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r488922423-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488922423</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>Had  a great stay</t>
+  </si>
+  <si>
+    <t>Recently stayed at this hotel for a few weeks getting some business matters done.   It was great.  Felt very comfortable.  The staff was always professional and Kim was also great to deal with.  Rooms were clean and there is a lot of space.  Loved the kitchen and beds were very comfortable!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded May 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2017</t>
+  </si>
+  <si>
+    <t>Recently stayed at this hotel for a few weeks getting some business matters done.   It was great.  Felt very comfortable.  The staff was always professional and Kim was also great to deal with.  Rooms were clean and there is a lot of space.  Loved the kitchen and beds were very comfortable!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r482139930-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>482139930</t>
+  </si>
+  <si>
+    <t>05/06/2017</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Hotel stay was great. The receptionists were exceptional. Jazzmine was really professional and excellent in service delivery.The hotel was clean and renovated. Looks better than the last time.I recommend it for someone.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded May 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2017</t>
+  </si>
+  <si>
+    <t>Hotel stay was great. The receptionists were exceptional. Jazzmine was really professional and excellent in service delivery.The hotel was clean and renovated. Looks better than the last time.I recommend it for someone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r464059329-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>464059329</t>
+  </si>
+  <si>
+    <t>03/02/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great </t>
+  </si>
+  <si>
+    <t>This is now my most favorite locations to stay. The staff is great and welcoming, I'm feel very much so at home here. There are a wide variety of restaurants and stores near this location in walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded March 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2017</t>
+  </si>
+  <si>
+    <t>This is now my most favorite locations to stay. The staff is great and welcoming, I'm feel very much so at home here. There are a wide variety of restaurants and stores near this location in walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r421850905-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>421850905</t>
+  </si>
+  <si>
+    <t>09/24/2016</t>
+  </si>
+  <si>
+    <t>Unpleasant Stay</t>
+  </si>
+  <si>
+    <t>Upon entering my room, I could hear my toilet running constantly. The drawers were broken on the dresser and the room had a bad odor.  The next morning, I was awakened abruptly at 9am by loud banging on my door from the Extended Stay staff demanding that I tell them if I was going to stay or check out at the stated 11am check out time. When I said that I was unsure, she then called my room at 10:00am to get an answer. This disturbed my rest that I so desperately needed and I found it extremely unprofessional on the part of the hotel establishment.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r414511335-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>414511335</t>
+  </si>
+  <si>
+    <t>09/04/2016</t>
+  </si>
+  <si>
+    <t>Looks can be deceiving!!!</t>
+  </si>
+  <si>
+    <t>This place looks to be in a nice area,  it is clean, staff was nice, BUT within 30 minutes there was a murder within 40 yards of the parking lot. Few days later Our driver side windows where knocked out and vehicles were broken into. Come to find out this is very common for the area.  HPD said last time it happened (week before) the manager said it was too late and would not come to let them watch the  surveillance video.  There are always people walking the area. Very shady area. Seen very very suspicious activity going on when getting gas within a block. I would not recommend this place to anyone, especially anyone traveling alone.Rated as poor based on area. MoreShow less</t>
+  </si>
+  <si>
+    <t>This place looks to be in a nice area,  it is clean, staff was nice, BUT within 30 minutes there was a murder within 40 yards of the parking lot. Few days later Our driver side windows where knocked out and vehicles were broken into. Come to find out this is very common for the area.  HPD said last time it happened (week before) the manager said it was too late and would not come to let them watch the  surveillance video.  There are always people walking the area. Very shady area. Seen very very suspicious activity going on when getting gas within a block. I would not recommend this place to anyone, especially anyone traveling alone.Rated as poor based on area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r338673805-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>338673805</t>
+  </si>
+  <si>
+    <t>01/09/2016</t>
+  </si>
+  <si>
+    <t>Very Clean, Friendly Staff, Great Location...My Go-To Place in Houston!</t>
+  </si>
+  <si>
+    <t>I was shocked at the negative reviews of this hotel - maybe they've had a management change but my experience has been totally different!  I've stayed 3 times in the last 4 weeks and am going back tomorrow, actually, because this hotel is very clean, the staff is friendly and welcoming (they greet me by name and ask how my daughter's doing, knowing she's in the hospital in Houston), the rooms are large and very comfortable with a nice desk/work area with free wifi, a comfortable living room with couch, coffee table, and TV, a full kitchen, and a very comfortable bed.  They call to make sure your room is to your satisfaction, and will bring bedding for the sofabed or dishes, utensils, coffeemaker and coffee to your room for you if you'd like.  Their "grab and go" breakfast includes fruit, muffins, and fresh-brewed coffee - all plentiful and delicious.  The location is right off the interstate (if traffic's heavy, exit at Ella, then take Pinemont to Hollister).  Just under the overpass, there's a huge shopping center with Target, Chick-fil-A, Big Lots, a gas station or two, and there are TONS of other places to eat and to shop along the service roads.I chose this hotel because of an awesome deal on Priceline, but I keep going back because it's such a nice hotel with a great staff in a convenient location.  It's my go-to place in Houston!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>I was shocked at the negative reviews of this hotel - maybe they've had a management change but my experience has been totally different!  I've stayed 3 times in the last 4 weeks and am going back tomorrow, actually, because this hotel is very clean, the staff is friendly and welcoming (they greet me by name and ask how my daughter's doing, knowing she's in the hospital in Houston), the rooms are large and very comfortable with a nice desk/work area with free wifi, a comfortable living room with couch, coffee table, and TV, a full kitchen, and a very comfortable bed.  They call to make sure your room is to your satisfaction, and will bring bedding for the sofabed or dishes, utensils, coffeemaker and coffee to your room for you if you'd like.  Their "grab and go" breakfast includes fruit, muffins, and fresh-brewed coffee - all plentiful and delicious.  The location is right off the interstate (if traffic's heavy, exit at Ella, then take Pinemont to Hollister).  Just under the overpass, there's a huge shopping center with Target, Chick-fil-A, Big Lots, a gas station or two, and there are TONS of other places to eat and to shop along the service roads.I chose this hotel because of an awesome deal on Priceline, but I keep going back because it's such a nice hotel with a great staff in a convenient location.  It's my go-to place in Houston!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r299723126-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>299723126</t>
+  </si>
+  <si>
+    <t>08/15/2015</t>
+  </si>
+  <si>
+    <t>Adequate.</t>
+  </si>
+  <si>
+    <t>Casual attitude toward housekeeping and maintenance.  Large dead cockroach on carpet near door of tired kitchen.  Very good price on Priceline.  Large room.  Pool not open during August stay.  Secure internet appreciated.  South end fire exit didn't lock.  Bedroom TV and noisy air conditioner right next to each other.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r268302372-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>268302372</t>
+  </si>
+  <si>
+    <t>04/27/2015</t>
+  </si>
+  <si>
+    <t>Rundown dump,,,,</t>
+  </si>
+  <si>
+    <t>This place was by far the worst hotel experience I have had in my business travels. Filthy stained carpet and couch. I asked for cushions to be replaced on the couch because of the stains; they just replaced them with more stained cushions. The room smelled musty; found a big black hair in the refrigerator, oven was nasty inside and when I tried to bake a pizza the whole room smelled like smoke. The bath towels were even stained....ugh. The list goes on and on. Do yourself a favor.....don't stay here if you like cleanliness.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r195103917-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>195103917</t>
+  </si>
+  <si>
+    <t>02/23/2014</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised - nice room and staff</t>
+  </si>
+  <si>
+    <t>We stayed for one night in-between a 2 night stay in Dallas.  We got a great deal through Priceline and I was a little nervous about the adage "you get what you pay for."  We found the rooms to be comfortable and clean with a full kitchen and dishes.  I was able to a decent workout in the morning on the elliptical and the front desk ladies (Latonya and Liza) were helpful in printing out boarding passes for our flight.  Some of our fellow travelers looked a bit on the rough side but everyone was very polite and we had a good stay.  Keep up the good work!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded February 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2014</t>
+  </si>
+  <si>
+    <t>We stayed for one night in-between a 2 night stay in Dallas.  We got a great deal through Priceline and I was a little nervous about the adage "you get what you pay for."  We found the rooms to be comfortable and clean with a full kitchen and dishes.  I was able to a decent workout in the morning on the elliptical and the front desk ladies (Latonya and Liza) were helpful in printing out boarding passes for our flight.  Some of our fellow travelers looked a bit on the rough side but everyone was very polite and we had a good stay.  Keep up the good work!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r180174826-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>180174826</t>
+  </si>
+  <si>
+    <t>10/08/2013</t>
+  </si>
+  <si>
+    <t>Convenient Hotel</t>
+  </si>
+  <si>
+    <t>This hotel is situated just off of Hwy. 290 close to all kinds of restaurants and things to do. The room was a little noisy from the people in the hall but I can't blame the hotel as they have no control over people. Other than that the room is pretty spacious, has a microwave, 4 burner stove, fridge/freezer, DVD player and T.V. it's basically a mini apartment. I would definitely recommend this to anyone looking to stay for an extended period of time in the NW Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded October 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2013</t>
+  </si>
+  <si>
+    <t>This hotel is situated just off of Hwy. 290 close to all kinds of restaurants and things to do. The room was a little noisy from the people in the hall but I can't blame the hotel as they have no control over people. Other than that the room is pretty spacious, has a microwave, 4 burner stove, fridge/freezer, DVD player and T.V. it's basically a mini apartment. I would definitely recommend this to anyone looking to stay for an extended period of time in the NW Houston area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r172060502-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>172060502</t>
+  </si>
+  <si>
+    <t>08/13/2013</t>
+  </si>
+  <si>
+    <t>Stay at ESA-Northwest was memorable</t>
+  </si>
+  <si>
+    <t>The hotel location was very convenient, as it was close to my office.The neat and clean lobby, and rooms also were good. I stayed there for a month, and did not find any problems.Staff members, especially Sal, and Jack were very helpful and cooperative.Only thing that i thought could have been improved was the cleaning of rooms was done once a week. It could have been done atleast twice a week.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r158759982-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158759982</t>
+  </si>
+  <si>
+    <t>04/25/2013</t>
+  </si>
+  <si>
+    <t>With Updates and Proper Maintenance, This Hotel Would Be Perfect</t>
+  </si>
+  <si>
+    <t>Pros:
+1. Location, location, location! Close to shopping, food, and entertainment. Target, Walmart, and a few clothing stores were right across the over pass. Golden Corral was almost directly behind the hotel. There were many other food places there. The zoo, aquarium were about a 15 minute drive away. There was even a movie theater across the overpass. Hotel was close enough to everything yet not too close where there is a lot of foot traffic around.
+2. The girl at the front desk in the morning was amazing! She was so cheerful and helpful.
+3. A lot of space, perfect for extended stays.
+4. Parking was great! It was never hard to get a spot in the parking lot.
+5. The price for my trip was amazing! I will definitely book a room there again.
+Negatives:
+1. When you walk into the hotel from the side entrance, the floors are nasty! They need to steam clean it or change it altogether.
+2. The staff doesn't change the garbage cans in the hallway often. Someone put some funky smelling food or something in the garbage can and it stunk up the staircase for 2 days. 
+3. The hotel has a musty smell to it. You could tell that maintenance doesn't clean the common areas often(aside from the lobby).
+4. When I entered my room, the floors and walls were dirty. In the bathroom, there was hair on the shower walls...Pros:1. Location, location, location! Close to shopping, food, and entertainment. Target, Walmart, and a few clothing stores were right across the over pass. Golden Corral was almost directly behind the hotel. There were many other food places there. The zoo, aquarium were about a 15 minute drive away. There was even a movie theater across the overpass. Hotel was close enough to everything yet not too close where there is a lot of foot traffic around.2. The girl at the front desk in the morning was amazing! She was so cheerful and helpful.3. A lot of space, perfect for extended stays.4. Parking was great! It was never hard to get a spot in the parking lot.5. The price for my trip was amazing! I will definitely book a room there again.Negatives:1. When you walk into the hotel from the side entrance, the floors are nasty! They need to steam clean it or change it altogether.2. The staff doesn't change the garbage cans in the hallway often. Someone put some funky smelling food or something in the garbage can and it stunk up the staircase for 2 days. 3. The hotel has a musty smell to it. You could tell that maintenance doesn't clean the common areas often(aside from the lobby).4. When I entered my room, the floors and walls were dirty. In the bathroom, there was hair on the shower walls and on the blow dryer. When I asked about them cleaning my room, they said I would have to pay $10 to have house keeping clean my room again. I was so annoyed. I went down the block to Walmart, and bought cleaning supplies and did a through cleaning of the kitchen and bathroom myself.5. The bed was broken. Upon looking at the bed, it looked normal, but when you lay on it, it sunk down in the middle. Felt like I was sleeping in a hammock rather than a queens size bed.6. All of the windows were smudged on the glass and there was white residue on the window frames. I was afraid to touch it. My boyfriend ended up buying bleach and cleaning the windows as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded April 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2013</t>
+  </si>
+  <si>
+    <t>Pros:
+1. Location, location, location! Close to shopping, food, and entertainment. Target, Walmart, and a few clothing stores were right across the over pass. Golden Corral was almost directly behind the hotel. There were many other food places there. The zoo, aquarium were about a 15 minute drive away. There was even a movie theater across the overpass. Hotel was close enough to everything yet not too close where there is a lot of foot traffic around.
+2. The girl at the front desk in the morning was amazing! She was so cheerful and helpful.
+3. A lot of space, perfect for extended stays.
+4. Parking was great! It was never hard to get a spot in the parking lot.
+5. The price for my trip was amazing! I will definitely book a room there again.
+Negatives:
+1. When you walk into the hotel from the side entrance, the floors are nasty! They need to steam clean it or change it altogether.
+2. The staff doesn't change the garbage cans in the hallway often. Someone put some funky smelling food or something in the garbage can and it stunk up the staircase for 2 days. 
+3. The hotel has a musty smell to it. You could tell that maintenance doesn't clean the common areas often(aside from the lobby).
+4. When I entered my room, the floors and walls were dirty. In the bathroom, there was hair on the shower walls...Pros:1. Location, location, location! Close to shopping, food, and entertainment. Target, Walmart, and a few clothing stores were right across the over pass. Golden Corral was almost directly behind the hotel. There were many other food places there. The zoo, aquarium were about a 15 minute drive away. There was even a movie theater across the overpass. Hotel was close enough to everything yet not too close where there is a lot of foot traffic around.2. The girl at the front desk in the morning was amazing! She was so cheerful and helpful.3. A lot of space, perfect for extended stays.4. Parking was great! It was never hard to get a spot in the parking lot.5. The price for my trip was amazing! I will definitely book a room there again.Negatives:1. When you walk into the hotel from the side entrance, the floors are nasty! They need to steam clean it or change it altogether.2. The staff doesn't change the garbage cans in the hallway often. Someone put some funky smelling food or something in the garbage can and it stunk up the staircase for 2 days. 3. The hotel has a musty smell to it. You could tell that maintenance doesn't clean the common areas often(aside from the lobby).4. When I entered my room, the floors and walls were dirty. In the bathroom, there was hair on the shower walls and on the blow dryer. When I asked about them cleaning my room, they said I would have to pay $10 to have house keeping clean my room again. I was so annoyed. I went down the block to Walmart, and bought cleaning supplies and did a through cleaning of the kitchen and bathroom myself.5. The bed was broken. Upon looking at the bed, it looked normal, but when you lay on it, it sunk down in the middle. Felt like I was sleeping in a hammock rather than a queens size bed.6. All of the windows were smudged on the glass and there was white residue on the window frames. I was afraid to touch it. My boyfriend ended up buying bleach and cleaning the windows as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r158014723-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158014723</t>
+  </si>
+  <si>
+    <t>04/17/2013</t>
+  </si>
+  <si>
+    <t>Great except for smell of smoke</t>
+  </si>
+  <si>
+    <t>So I'm not really sure how to rate this, because I really have only one complaint, which for me is a dealbreaker, but for others would be inconsequential or even a plus - smoking rooms only.
+We booked a room here through priceline (got it for a ridiculously great rate of 25/night before taxes), so we really can't be angry at them. Our room wasn't ready right when we got there, but we arrived a little early and they were very apologetic about it (apparently a ton of people had left that morning and they would be pretty much full again that night). We waited maybe 15 minutes for it to be ready, but the wifi in the lobby (and elsewhere) was good. We got to our room and it smelled really strongly of cigarettes. I went back down and asked if we could switch rooms, but it turns out that they do not have any non-smoking rooms in their hotels as they mainly cater to business travelers who want to be able to smoke in their rooms. And, as they were full, we weren't able to see if any other the other rooms smelled less. It was unfortunate, but a risk we took by booking with priceline, who doesn't guarantee smoke-free rooms (we've booked with them probably 20 times before and it hasn't been an issue as so many chains are completely smoke free). But, they did come up...So I'm not really sure how to rate this, because I really have only one complaint, which for me is a dealbreaker, but for others would be inconsequential or even a plus - smoking rooms only.We booked a room here through priceline (got it for a ridiculously great rate of 25/night before taxes), so we really can't be angry at them. Our room wasn't ready right when we got there, but we arrived a little early and they were very apologetic about it (apparently a ton of people had left that morning and they would be pretty much full again that night). We waited maybe 15 minutes for it to be ready, but the wifi in the lobby (and elsewhere) was good. We got to our room and it smelled really strongly of cigarettes. I went back down and asked if we could switch rooms, but it turns out that they do not have any non-smoking rooms in their hotels as they mainly cater to business travelers who want to be able to smoke in their rooms. And, as they were full, we weren't able to see if any other the other rooms smelled less. It was unfortunate, but a risk we took by booking with priceline, who doesn't guarantee smoke-free rooms (we've booked with them probably 20 times before and it hasn't been an issue as so many chains are completely smoke free). But, they did come up and febreeze the room immediately, were apologetic about the smell, and told us to let them know if we needed more febreeze. Overall, the staff was great, really friendly and helpful and again, apologetic. The room was a great size - kitchenette that even included some stuff for cooking in and eating off of. We had a window and good a/c unit, so that helped with the smell somewhat. Really, everything about the place was great except for the smell. So, if it doesn't bother you, or better yet, if you smoke, you'll probably love it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded April 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2013</t>
+  </si>
+  <si>
+    <t>So I'm not really sure how to rate this, because I really have only one complaint, which for me is a dealbreaker, but for others would be inconsequential or even a plus - smoking rooms only.
+We booked a room here through priceline (got it for a ridiculously great rate of 25/night before taxes), so we really can't be angry at them. Our room wasn't ready right when we got there, but we arrived a little early and they were very apologetic about it (apparently a ton of people had left that morning and they would be pretty much full again that night). We waited maybe 15 minutes for it to be ready, but the wifi in the lobby (and elsewhere) was good. We got to our room and it smelled really strongly of cigarettes. I went back down and asked if we could switch rooms, but it turns out that they do not have any non-smoking rooms in their hotels as they mainly cater to business travelers who want to be able to smoke in their rooms. And, as they were full, we weren't able to see if any other the other rooms smelled less. It was unfortunate, but a risk we took by booking with priceline, who doesn't guarantee smoke-free rooms (we've booked with them probably 20 times before and it hasn't been an issue as so many chains are completely smoke free). But, they did come up...So I'm not really sure how to rate this, because I really have only one complaint, which for me is a dealbreaker, but for others would be inconsequential or even a plus - smoking rooms only.We booked a room here through priceline (got it for a ridiculously great rate of 25/night before taxes), so we really can't be angry at them. Our room wasn't ready right when we got there, but we arrived a little early and they were very apologetic about it (apparently a ton of people had left that morning and they would be pretty much full again that night). We waited maybe 15 minutes for it to be ready, but the wifi in the lobby (and elsewhere) was good. We got to our room and it smelled really strongly of cigarettes. I went back down and asked if we could switch rooms, but it turns out that they do not have any non-smoking rooms in their hotels as they mainly cater to business travelers who want to be able to smoke in their rooms. And, as they were full, we weren't able to see if any other the other rooms smelled less. It was unfortunate, but a risk we took by booking with priceline, who doesn't guarantee smoke-free rooms (we've booked with them probably 20 times before and it hasn't been an issue as so many chains are completely smoke free). But, they did come up and febreeze the room immediately, were apologetic about the smell, and told us to let them know if we needed more febreeze. Overall, the staff was great, really friendly and helpful and again, apologetic. The room was a great size - kitchenette that even included some stuff for cooking in and eating off of. We had a window and good a/c unit, so that helped with the smell somewhat. Really, everything about the place was great except for the smell. So, if it doesn't bother you, or better yet, if you smoke, you'll probably love it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r155699955-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155699955</t>
+  </si>
+  <si>
+    <t>03/26/2013</t>
+  </si>
+  <si>
+    <t>I'd stay here again</t>
+  </si>
+  <si>
+    <t>I booked this through hotwire.com, and I was very pleased with how it turned out. Obviously, the price was good. But, I'd have to say I was surprised at how good the property was considering some of the reviews I've read. The room was very clean. There was no noise problem. This area of Houston is just fine (it's mostly a business/retail area), and security was very visible in the parking lot as I returned late at night after business. The full kitchen is good, and I liked the recliner chair. There was not a problem, not one, and I'd stay here again. It sure helped that the location was close to my business site and not far from a good golf course -- the excellent public facility at Memorial Park.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded March 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2013</t>
+  </si>
+  <si>
+    <t>I booked this through hotwire.com, and I was very pleased with how it turned out. Obviously, the price was good. But, I'd have to say I was surprised at how good the property was considering some of the reviews I've read. The room was very clean. There was no noise problem. This area of Houston is just fine (it's mostly a business/retail area), and security was very visible in the parking lot as I returned late at night after business. The full kitchen is good, and I liked the recliner chair. There was not a problem, not one, and I'd stay here again. It sure helped that the location was close to my business site and not far from a good golf course -- the excellent public facility at Memorial Park.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r153709374-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153709374</t>
+  </si>
+  <si>
+    <t>03/04/2013</t>
+  </si>
+  <si>
+    <t>Felt like home. Holister Ave. Houston, Tx.</t>
+  </si>
+  <si>
+    <t>Rhianna, front desk is so cheerful and helpful. Area of city is very nice. Looks like fortune 500 business park that is landscaped. Hungry ? Walk to Taco Bell about 1/2 block. There is a sonic next to Taco Bell if you want to drive. Even Taco Bell and Sonic are upscale and landscaped. The room has a large couch, coffe table, recliner, large flat screen LCD Tv.. The bed has a great mattress and four pillows. Full kitchen with fridge, micro, coffee maker, dishes etc. Iron and board. Hair dryer. If you forgot to bring Shampoo or razor, etc., just ask at front desk, it's free. Also set up with free Wi-Fi, access code provided with door key card. Hope to go back in March 2013. here is a tip. It is located across from the Wells Fargo Tower bldg.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded March 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2013</t>
+  </si>
+  <si>
+    <t>Rhianna, front desk is so cheerful and helpful. Area of city is very nice. Looks like fortune 500 business park that is landscaped. Hungry ? Walk to Taco Bell about 1/2 block. There is a sonic next to Taco Bell if you want to drive. Even Taco Bell and Sonic are upscale and landscaped. The room has a large couch, coffe table, recliner, large flat screen LCD Tv.. The bed has a great mattress and four pillows. Full kitchen with fridge, micro, coffee maker, dishes etc. Iron and board. Hair dryer. If you forgot to bring Shampoo or razor, etc., just ask at front desk, it's free. Also set up with free Wi-Fi, access code provided with door key card. Hope to go back in March 2013. here is a tip. It is located across from the Wells Fargo Tower bldg.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r152747165-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152747165</t>
+  </si>
+  <si>
+    <t>02/21/2013</t>
+  </si>
+  <si>
+    <t>Home away from home!</t>
+  </si>
+  <si>
+    <t>The staff is very nice and the rooms are very big. The housekeepers make sure my room is clean and fresh when they do clean my room. Daizha and Sal are very helpful and the other bubbly one at the front desk.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded February 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2013</t>
+  </si>
+  <si>
+    <t>The staff is very nice and the rooms are very big. The housekeepers make sure my room is clean and fresh when they do clean my room. Daizha and Sal are very helpful and the other bubbly one at the front desk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r152446434-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152446434</t>
+  </si>
+  <si>
+    <t>02/18/2013</t>
+  </si>
+  <si>
+    <t>Plan to be your own housekeeper</t>
+  </si>
+  <si>
+    <t>If you do not have a problem with doing your own housekeeping, this hotel is for you. I have never stayed in a hotel where I had to change my linen and take them down to the front desk to exchange them. This not only applied to the towels, but also to the sheets, WOW! Housekeeping was only available for the rooms of persons checking out. And the breakfast was a joke.  No juice, only coffee and muffins and breakfast bars. There were two good things:  Location and Size of room.  Close to lots of shopping and food and the rooms were very spacious. WOULD NOT RECOMMEND THIS HOTEL.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded February 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2013</t>
+  </si>
+  <si>
+    <t>If you do not have a problem with doing your own housekeeping, this hotel is for you. I have never stayed in a hotel where I had to change my linen and take them down to the front desk to exchange them. This not only applied to the towels, but also to the sheets, WOW! Housekeeping was only available for the rooms of persons checking out. And the breakfast was a joke.  No juice, only coffee and muffins and breakfast bars. There were two good things:  Location and Size of room.  Close to lots of shopping and food and the rooms were very spacious. WOULD NOT RECOMMEND THIS HOTEL.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r151231004-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151231004</t>
+  </si>
+  <si>
+    <t>02/02/2013</t>
+  </si>
+  <si>
+    <t>Cheap, cheap, cheap.</t>
+  </si>
+  <si>
+    <t>I just stayed at this hotel for three days and could not take it anymore and left.  I didn't even stay the whole night my last night there.  There where huge roaches in the hall, and my room had fleas and roaches.  This place must be a hot spot for drugs, cause they have major traffic coming and going all hours of the night.  My room was near the side doors on the first floor, that is how I know people where making show much noise coming and going.  Beer cans where being used to keep the doors propped open.  I was only in my room at night, so when i would go to the front desk nobody was ever there.  When I finally talked to the front desk person they told me there  was security on property.  What a joke the guard stays in his car all night sleeping.  The place really smells like wet dog and mold.  Then the so called grab and go breakfast was a joke.  Sorry to leave such a bad report, but after the stay I had you would understand I have been generous in my critiques.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded February 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2013</t>
+  </si>
+  <si>
+    <t>I just stayed at this hotel for three days and could not take it anymore and left.  I didn't even stay the whole night my last night there.  There where huge roaches in the hall, and my room had fleas and roaches.  This place must be a hot spot for drugs, cause they have major traffic coming and going all hours of the night.  My room was near the side doors on the first floor, that is how I know people where making show much noise coming and going.  Beer cans where being used to keep the doors propped open.  I was only in my room at night, so when i would go to the front desk nobody was ever there.  When I finally talked to the front desk person they told me there  was security on property.  What a joke the guard stays in his car all night sleeping.  The place really smells like wet dog and mold.  Then the so called grab and go breakfast was a joke.  Sorry to leave such a bad report, but after the stay I had you would understand I have been generous in my critiques.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r151019251-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151019251</t>
+  </si>
+  <si>
+    <t>01/30/2013</t>
+  </si>
+  <si>
+    <t>Winter Vacation</t>
+  </si>
+  <si>
+    <t>We are halfway through our stay and, thus far, our overall experience at ESA has been excellent.The location is convenient to our daughter's home, and to all of the locations we want to visit in Houston. The staff is always helpful, and is always quick to respond to our requests. LaTonya, the hotel manager, is always available to help us. The front desk personnel - Breanna, Daizha and Sal, are always couteous and helpful, and always greet us with a smile. Eric, the maintenance man, is always quick to respond to our needs, and he always is able to solve our problem. We are also very satisfid with our chamber maid (we haven't learned her name), who does a good job, and occasionally does some helpful things that we didn't expect.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded January 31, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2013</t>
+  </si>
+  <si>
+    <t>We are halfway through our stay and, thus far, our overall experience at ESA has been excellent.The location is convenient to our daughter's home, and to all of the locations we want to visit in Houston. The staff is always helpful, and is always quick to respond to our requests. LaTonya, the hotel manager, is always available to help us. The front desk personnel - Breanna, Daizha and Sal, are always couteous and helpful, and always greet us with a smile. Eric, the maintenance man, is always quick to respond to our needs, and he always is able to solve our problem. We are also very satisfid with our chamber maid (we haven't learned her name), who does a good job, and occasionally does some helpful things that we didn't expect.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r151004723-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151004723</t>
+  </si>
+  <si>
+    <t>You Get What You Pay For</t>
+  </si>
+  <si>
+    <t>I'm not big on extended stay hotels.  Got this hotel on Priceline for a good rate and it was 2.5 stars with high ratings so I took it.  Certainly don't think it deserves the high ratings that it has.  Funky smell in the hallway (think nursing home) and even the smell of weed as we came in at nite in the hallway - this was ok in my college days but don't have the same appreciation today....but this is to be expected at a discount hotel with discount minded clientele.  We had a single bed - Queen bed with cheap mattress - once again I had to remind myself I was at discount hotel not Hilton.  Overall hotel was clean so give them credit where credit is due.  Definitely need to clean carpets though more frequently.  If you are on a tight budget an use to staying in cheap hotels you will like this hotel because it is the Ritz Carlton of cheap hotels....MoreShow less</t>
+  </si>
+  <si>
+    <t>I'm not big on extended stay hotels.  Got this hotel on Priceline for a good rate and it was 2.5 stars with high ratings so I took it.  Certainly don't think it deserves the high ratings that it has.  Funky smell in the hallway (think nursing home) and even the smell of weed as we came in at nite in the hallway - this was ok in my college days but don't have the same appreciation today....but this is to be expected at a discount hotel with discount minded clientele.  We had a single bed - Queen bed with cheap mattress - once again I had to remind myself I was at discount hotel not Hilton.  Overall hotel was clean so give them credit where credit is due.  Definitely need to clean carpets though more frequently.  If you are on a tight budget an use to staying in cheap hotels you will like this hotel because it is the Ritz Carlton of cheap hotels....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r146302334-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>146302334</t>
+  </si>
+  <si>
+    <t>11/27/2012</t>
+  </si>
+  <si>
+    <t>very good staff</t>
+  </si>
+  <si>
+    <t>The staff at this hotel makes it a excellent rating.  The hotel is decent with pleasent rooms and the kitchenette is very helpful for those of us who are here for a long period of time.  I must say that the staff though is supurb starting with the hotel manager Latonya, she goes above and beyond to make all of our stay here the best it can be.  This trickles down to the rest of the staff including all the front desk help, to the maids, as well as the maintance staff, all eager to help if something occurs.  That is why I would stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded November 29, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2012</t>
+  </si>
+  <si>
+    <t>The staff at this hotel makes it a excellent rating.  The hotel is decent with pleasent rooms and the kitchenette is very helpful for those of us who are here for a long period of time.  I must say that the staff though is supurb starting with the hotel manager Latonya, she goes above and beyond to make all of our stay here the best it can be.  This trickles down to the rest of the staff including all the front desk help, to the maids, as well as the maintance staff, all eager to help if something occurs.  That is why I would stay at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r145992545-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145992545</t>
+  </si>
+  <si>
+    <t>11/22/2012</t>
+  </si>
+  <si>
+    <t>Great Staff, Great Location</t>
+  </si>
+  <si>
+    <t>I stayed here from June 2012 thru October 2012 for business. I certainly had a great time. I'd like to extend my thanks to Mngr. La Tonya, who made sure that everything was working in my room and int tip-top shape. Especially during renovation when all of the staff were too busy to fix my sink, she tried to fix it herself and needless to say she made an attempt. But it eventually was fixed the very next day.  A big thanks to Sal and the entire front office, y'all are always attentive and friendly. And thanks to the entire staff that made sure my room was definitely spotless weekly; It certainly was a home away from home. I'd  like to extend whomever is looking for a great place with excellent service, and with wonderful restaurants at walking distance, come on down and see for yourselves this hidden gem of a place.V S.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded November 26, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 26, 2012</t>
+  </si>
+  <si>
+    <t>I stayed here from June 2012 thru October 2012 for business. I certainly had a great time. I'd like to extend my thanks to Mngr. La Tonya, who made sure that everything was working in my room and int tip-top shape. Especially during renovation when all of the staff were too busy to fix my sink, she tried to fix it herself and needless to say she made an attempt. But it eventually was fixed the very next day.  A big thanks to Sal and the entire front office, y'all are always attentive and friendly. And thanks to the entire staff that made sure my room was definitely spotless weekly; It certainly was a home away from home. I'd  like to extend whomever is looking for a great place with excellent service, and with wonderful restaurants at walking distance, come on down and see for yourselves this hidden gem of a place.V S.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r145481184-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145481184</t>
+  </si>
+  <si>
+    <t>11/15/2012</t>
+  </si>
+  <si>
+    <t>Comfortable and feels like home</t>
+  </si>
+  <si>
+    <t>I'm currently a guest resident at the extended stay america and I must say it as been a pleasure to be here. LaTonya and her staff are very friendly,efficient,attentive, and very helpful and resource. I would recommend this property for anyone coming for an extended stay or for a night or two.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded November 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2012</t>
+  </si>
+  <si>
+    <t>I'm currently a guest resident at the extended stay america and I must say it as been a pleasure to be here. LaTonya and her staff are very friendly,efficient,attentive, and very helpful and resource. I would recommend this property for anyone coming for an extended stay or for a night or two.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r140267450-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>140267450</t>
+  </si>
+  <si>
+    <t>09/14/2012</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>I travel alot with my job and vacationing with my wife on our Harley Davidson. From the time I arrived in June 2012 to currently September 2012 the staff has been outstanding from the Mgr. LaTonya Campbell front desk personal Manuel, Meribel and Sal who always has a smile. Housekeeping who works very hard to keep us all happy and to maintenance who keeps the hotel running smooth and looking good. Thank you for all that you do.Richard ClarkMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded September 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2012</t>
+  </si>
+  <si>
+    <t>I travel alot with my job and vacationing with my wife on our Harley Davidson. From the time I arrived in June 2012 to currently September 2012 the staff has been outstanding from the Mgr. LaTonya Campbell front desk personal Manuel, Meribel and Sal who always has a smile. Housekeeping who works very hard to keep us all happy and to maintenance who keeps the hotel running smooth and looking good. Thank you for all that you do.Richard ClarkMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r132249260-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132249260</t>
+  </si>
+  <si>
+    <t>06/18/2012</t>
+  </si>
+  <si>
+    <t>Like at Home, very friendly staff</t>
+  </si>
+  <si>
+    <t>It is my second time here and It has been a very gratefull experience to Stay here, quick, friendly and helpfull service, answer to all my questions with nice attitude, nice rooms, overall the kitchen, I have never seen in my country a service like this, is like be at home, with all those things, is very helpfull, you can save money there, you can cook, watch tv, swin in the pool, wash yopur clothes, do excersise, have a light breakfast in the morning, all this for the same price, it really worth the value.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 11, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2012</t>
+  </si>
+  <si>
+    <t>It is my second time here and It has been a very gratefull experience to Stay here, quick, friendly and helpfull service, answer to all my questions with nice attitude, nice rooms, overall the kitchen, I have never seen in my country a service like this, is like be at home, with all those things, is very helpfull, you can save money there, you can cook, watch tv, swin in the pool, wash yopur clothes, do excersise, have a light breakfast in the morning, all this for the same price, it really worth the value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r131813667-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>131813667</t>
+  </si>
+  <si>
+    <t>06/12/2012</t>
+  </si>
+  <si>
+    <t>Very impressed....</t>
+  </si>
+  <si>
+    <t>I walked in and was greated with a smiling face.  Even though the area was without power due to some severe weather.   They were kind enough to take all my information, and put myself and my coworker in a room.  They just asked once power was on to come back so they could get a copy of our ID's.  They were courtious enough to call a day ahead and make sure we had enough nights due to the nature of our travels.  The room was very tidy and clean.  The whole hotel was clean smelling and quiet.  Even though this whole establishment was completely booked, it was pleasant none the less to stay here.  I will be more than happy to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 12, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2012</t>
+  </si>
+  <si>
+    <t>I walked in and was greated with a smiling face.  Even though the area was without power due to some severe weather.   They were kind enough to take all my information, and put myself and my coworker in a room.  They just asked once power was on to come back so they could get a copy of our ID's.  They were courtious enough to call a day ahead and make sure we had enough nights due to the nature of our travels.  The room was very tidy and clean.  The whole hotel was clean smelling and quiet.  Even though this whole establishment was completely booked, it was pleasant none the less to stay here.  I will be more than happy to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r130583029-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130583029</t>
+  </si>
+  <si>
+    <t>05/25/2012</t>
+  </si>
+  <si>
+    <t>Hotel Review</t>
+  </si>
+  <si>
+    <t>The staff &amp; management have been extremely helpful and very friendly. The maintenance &amp; up keep at this hotel is second to none. Would highly recommend this hotel to anyone, including families, and I have already booked to bring my family &amp; friends from Scotland next May for a vacation. Regards Mr Glenn McMillan from ScotlandMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded June 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2012</t>
+  </si>
+  <si>
+    <t>The staff &amp; management have been extremely helpful and very friendly. The maintenance &amp; up keep at this hotel is second to none. Would highly recommend this hotel to anyone, including families, and I have already booked to bring my family &amp; friends from Scotland next May for a vacation. Regards Mr Glenn McMillan from ScotlandMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r88940860-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>88940860</t>
+  </si>
+  <si>
+    <t>12/03/2010</t>
+  </si>
+  <si>
+    <t>Check in always a nightmare</t>
+  </si>
+  <si>
+    <t>This is the third time in a year a stayed in this hotel and I can't say check i is getting any better. On March, they did not have the non smoking room ready at check in time. They offered me a smoking room, as if it was a non smoking. Had to return to front desk. Then they gave me a room that was not clean. Unforgivable. At the end after 4 hours of wait I got a room that was supposed to non smoking (cleary had a smoker recently staying), but was bareable. On September I booked a double room but they gave me a single. Front desk suggested me to sleep in the sofa bed on colleagues room for the same rate. BAD JOKE. At the end, after a lot of discussions, they gave me another single room, but upon "check out" billed me double. 1 hour two get the bill straight.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>This is the third time in a year a stayed in this hotel and I can't say check i is getting any better. On March, they did not have the non smoking room ready at check in time. They offered me a smoking room, as if it was a non smoking. Had to return to front desk. Then they gave me a room that was not clean. Unforgivable. At the end after 4 hours of wait I got a room that was supposed to non smoking (cleary had a smoker recently staying), but was bareable. On September I booked a double room but they gave me a single. Front desk suggested me to sleep in the sofa bed on colleagues room for the same rate. BAD JOKE. At the end, after a lot of discussions, they gave me another single room, but upon "check out" billed me double. 1 hour two get the bill straight.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r61938790-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>61938790</t>
+  </si>
+  <si>
+    <t>04/19/2010</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>I spent a week at this hotel, and there was not a morning, nor evening, that I walked through the front door and was not greeted with a smile and a kind word from the desk clerks.The rooms are large, comfortable, clean and fresh.  The location is not far from various places to eat and shop, but at the same time, there is not a bunch of  traffic noise at night to keep you awake. They provide anything you could possibly need, and if its not already in the room, all you have to do is ask... I really enjoyed my stay, and will make it my choice of hotels.. not only this location, but anywhere else I have to travel as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>I spent a week at this hotel, and there was not a morning, nor evening, that I walked through the front door and was not greeted with a smile and a kind word from the desk clerks.The rooms are large, comfortable, clean and fresh.  The location is not far from various places to eat and shop, but at the same time, there is not a bunch of  traffic noise at night to keep you awake. They provide anything you could possibly need, and if its not already in the room, all you have to do is ask... I really enjoyed my stay, and will make it my choice of hotels.. not only this location, but anywhere else I have to travel as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r52436566-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>52436566</t>
+  </si>
+  <si>
+    <t>01/03/2010</t>
+  </si>
+  <si>
+    <t>Large room with all the comforts of home.</t>
+  </si>
+  <si>
+    <t>Great location for visiting family in the NW/Willowbrook Mall area. The room was large and the kitchenette convenient when we didn't go out for meals. The bed was comfortable and the room was clean. Access via door keys and stairs was excellent. Staff were friendly and informative.</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r49430574-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>49430574</t>
+  </si>
+  <si>
+    <t>11/17/2009</t>
+  </si>
+  <si>
+    <t>it's a wonderful experience</t>
+  </si>
+  <si>
+    <t>a very nice property, staff are very professional, room is very spacy.</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r27249985-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>27249985</t>
+  </si>
+  <si>
+    <t>04/01/2009</t>
+  </si>
+  <si>
+    <t>The Best Hotel</t>
+  </si>
+  <si>
+    <t>This is the best hotel I have ever lived in and I have  lived in mostly all of the Extended Stays of America here in Houston, Texas.Keep up the good work.</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r8522110-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>8522110</t>
+  </si>
+  <si>
+    <t>08/27/2007</t>
+  </si>
+  <si>
+    <t>Very nice, great value!</t>
+  </si>
+  <si>
+    <t>I was very impressed with this hotel. It was clean, tastefully decorated, and looked like new. The area seemed nice and safe. The room had a full kitchen, table, desk, TV, and queen size bed. The staff was friendly and I had no problems. I have paid over $100/night for worse hotels than this, but I got my room for $30/night using the "name your price" feature on Priceline! What a bargain!!</t>
+  </si>
+  <si>
+    <t>August 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r7365010-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>7365010</t>
+  </si>
+  <si>
+    <t>04/14/2007</t>
+  </si>
+  <si>
+    <t>Pleasant Surprise</t>
+  </si>
+  <si>
+    <t>For $54.99 a night we were at first dubious, so we onlyguaranteed the first night at the daily rate ($20 more).  This property was rennovated 4 months ago as I write (Apr. '07).It was clean as a whistle.  Staff pleasant.  Small pool plusexercise room.  Shortcomings?  Your room is only made upby a maid once a week.  For clean towels, you exchange"old" towels for fresh towels at the front desk.  Free breakfastconsists of bagels, coffee and fresh fruit (apples/oranges).This falls short of most free breakfasts.  If you are used tothe Savoy, Hilton or Marriott, Extended Stay Deluxe - Northwestat this location won't fit the bill.  But, you'll have extra bucksfor attractions and meals out.  We did not use the frige, microwave, or oven.  Total stay, 11days.P.S.  Immediate surroundings: a new-looking office park.1-1/2 blks. from I-290.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2007</t>
+  </si>
+  <si>
+    <t>For $54.99 a night we were at first dubious, so we onlyguaranteed the first night at the daily rate ($20 more).  This property was rennovated 4 months ago as I write (Apr. '07).It was clean as a whistle.  Staff pleasant.  Small pool plusexercise room.  Shortcomings?  Your room is only made upby a maid once a week.  For clean towels, you exchange"old" towels for fresh towels at the front desk.  Free breakfastconsists of bagels, coffee and fresh fruit (apples/oranges).This falls short of most free breakfasts.  If you are used tothe Savoy, Hilton or Marriott, Extended Stay Deluxe - Northwestat this location won't fit the bill.  But, you'll have extra bucksfor attractions and meals out.  We did not use the frige, microwave, or oven.  Total stay, 11days.P.S.  Immediate surroundings: a new-looking office park.1-1/2 blks. from I-290.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1556,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1588,2832 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>92</v>
+      </c>
+      <c r="X6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>117</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>118</v>
+      </c>
+      <c r="X9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>126</v>
+      </c>
+      <c r="X10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" t="s">
+        <v>91</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>135</v>
+      </c>
+      <c r="X11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>143</v>
+      </c>
+      <c r="O12" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" t="s">
+        <v>153</v>
+      </c>
+      <c r="L14" t="s">
+        <v>154</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>155</v>
+      </c>
+      <c r="O14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>158</v>
+      </c>
+      <c r="J15" t="s">
+        <v>159</v>
+      </c>
+      <c r="K15" t="s">
+        <v>160</v>
+      </c>
+      <c r="L15" t="s">
+        <v>161</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>162</v>
+      </c>
+      <c r="O15" t="s">
+        <v>91</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>164</v>
+      </c>
+      <c r="J16" t="s">
+        <v>165</v>
+      </c>
+      <c r="K16" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16" t="s">
+        <v>167</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>168</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" t="s">
+        <v>173</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>175</v>
+      </c>
+      <c r="X17" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18" t="s">
+        <v>180</v>
+      </c>
+      <c r="K18" t="s">
+        <v>181</v>
+      </c>
+      <c r="L18" t="s">
+        <v>182</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>183</v>
+      </c>
+      <c r="O18" t="s">
+        <v>91</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>184</v>
+      </c>
+      <c r="X18" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>188</v>
+      </c>
+      <c r="J19" t="s">
+        <v>189</v>
+      </c>
+      <c r="K19" t="s">
+        <v>190</v>
+      </c>
+      <c r="L19" t="s">
+        <v>191</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>192</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>194</v>
+      </c>
+      <c r="J20" t="s">
+        <v>195</v>
+      </c>
+      <c r="K20" t="s">
+        <v>196</v>
+      </c>
+      <c r="L20" t="s">
+        <v>197</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>198</v>
+      </c>
+      <c r="O20" t="s">
+        <v>199</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>200</v>
+      </c>
+      <c r="X20" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>203</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>204</v>
+      </c>
+      <c r="J21" t="s">
+        <v>205</v>
+      </c>
+      <c r="K21" t="s">
+        <v>206</v>
+      </c>
+      <c r="L21" t="s">
+        <v>207</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>198</v>
+      </c>
+      <c r="O21" t="s">
+        <v>199</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>208</v>
+      </c>
+      <c r="X21" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>212</v>
+      </c>
+      <c r="J22" t="s">
+        <v>213</v>
+      </c>
+      <c r="K22" t="s">
+        <v>214</v>
+      </c>
+      <c r="L22" t="s">
+        <v>215</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>216</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>217</v>
+      </c>
+      <c r="X22" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>221</v>
+      </c>
+      <c r="J23" t="s">
+        <v>222</v>
+      </c>
+      <c r="K23" t="s">
+        <v>223</v>
+      </c>
+      <c r="L23" t="s">
+        <v>224</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>225</v>
+      </c>
+      <c r="O23" t="s">
+        <v>91</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>226</v>
+      </c>
+      <c r="X23" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J24" t="s">
+        <v>231</v>
+      </c>
+      <c r="K24" t="s">
+        <v>232</v>
+      </c>
+      <c r="L24" t="s">
+        <v>233</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>234</v>
+      </c>
+      <c r="X24" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>237</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>238</v>
+      </c>
+      <c r="J25" t="s">
+        <v>239</v>
+      </c>
+      <c r="K25" t="s">
+        <v>240</v>
+      </c>
+      <c r="L25" t="s">
+        <v>241</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>225</v>
+      </c>
+      <c r="O25" t="s">
+        <v>91</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>242</v>
+      </c>
+      <c r="X25" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>246</v>
+      </c>
+      <c r="J26" t="s">
+        <v>247</v>
+      </c>
+      <c r="K26" t="s">
+        <v>248</v>
+      </c>
+      <c r="L26" t="s">
+        <v>249</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>250</v>
+      </c>
+      <c r="O26" t="s">
+        <v>91</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>251</v>
+      </c>
+      <c r="X26" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>254</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>255</v>
+      </c>
+      <c r="J27" t="s">
+        <v>256</v>
+      </c>
+      <c r="K27" t="s">
+        <v>257</v>
+      </c>
+      <c r="L27" t="s">
+        <v>258</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>259</v>
+      </c>
+      <c r="O27" t="s">
+        <v>81</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>260</v>
+      </c>
+      <c r="X27" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>263</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>264</v>
+      </c>
+      <c r="J28" t="s">
+        <v>256</v>
+      </c>
+      <c r="K28" t="s">
+        <v>265</v>
+      </c>
+      <c r="L28" t="s">
+        <v>266</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>260</v>
+      </c>
+      <c r="X28" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>268</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>269</v>
+      </c>
+      <c r="J29" t="s">
+        <v>270</v>
+      </c>
+      <c r="K29" t="s">
+        <v>271</v>
+      </c>
+      <c r="L29" t="s">
+        <v>272</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>273</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>274</v>
+      </c>
+      <c r="X29" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>277</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>278</v>
+      </c>
+      <c r="J30" t="s">
+        <v>279</v>
+      </c>
+      <c r="K30" t="s">
+        <v>280</v>
+      </c>
+      <c r="L30" t="s">
+        <v>281</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>282</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>283</v>
+      </c>
+      <c r="X30" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>286</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>287</v>
+      </c>
+      <c r="J31" t="s">
+        <v>288</v>
+      </c>
+      <c r="K31" t="s">
+        <v>289</v>
+      </c>
+      <c r="L31" t="s">
+        <v>290</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>291</v>
+      </c>
+      <c r="X31" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>294</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>295</v>
+      </c>
+      <c r="J32" t="s">
+        <v>296</v>
+      </c>
+      <c r="K32" t="s">
+        <v>297</v>
+      </c>
+      <c r="L32" t="s">
+        <v>298</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>299</v>
+      </c>
+      <c r="X32" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>302</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>303</v>
+      </c>
+      <c r="J33" t="s">
+        <v>304</v>
+      </c>
+      <c r="K33" t="s">
+        <v>305</v>
+      </c>
+      <c r="L33" t="s">
+        <v>306</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>307</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>308</v>
+      </c>
+      <c r="X33" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>311</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>312</v>
+      </c>
+      <c r="J34" t="s">
+        <v>313</v>
+      </c>
+      <c r="K34" t="s">
+        <v>314</v>
+      </c>
+      <c r="L34" t="s">
+        <v>315</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>307</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>316</v>
+      </c>
+      <c r="X34" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>319</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>320</v>
+      </c>
+      <c r="J35" t="s">
+        <v>321</v>
+      </c>
+      <c r="K35" t="s">
+        <v>322</v>
+      </c>
+      <c r="L35" t="s">
+        <v>323</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>324</v>
+      </c>
+      <c r="O35" t="s">
+        <v>91</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>325</v>
+      </c>
+      <c r="X35" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>328</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>329</v>
+      </c>
+      <c r="J36" t="s">
+        <v>330</v>
+      </c>
+      <c r="K36" t="s">
+        <v>331</v>
+      </c>
+      <c r="L36" t="s">
+        <v>332</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>333</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>335</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>336</v>
+      </c>
+      <c r="J37" t="s">
+        <v>337</v>
+      </c>
+      <c r="K37" t="s">
+        <v>338</v>
+      </c>
+      <c r="L37" t="s">
+        <v>339</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>340</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>342</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>343</v>
+      </c>
+      <c r="J38" t="s">
+        <v>344</v>
+      </c>
+      <c r="K38" t="s">
+        <v>345</v>
+      </c>
+      <c r="L38" t="s">
+        <v>346</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>347</v>
+      </c>
+      <c r="O38" t="s">
+        <v>199</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>348</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>349</v>
+      </c>
+      <c r="J39" t="s">
+        <v>350</v>
+      </c>
+      <c r="K39" t="s">
+        <v>351</v>
+      </c>
+      <c r="L39" t="s">
+        <v>352</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>353</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>354</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>355</v>
+      </c>
+      <c r="J40" t="s">
+        <v>356</v>
+      </c>
+      <c r="K40" t="s">
+        <v>357</v>
+      </c>
+      <c r="L40" t="s">
+        <v>358</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>359</v>
+      </c>
+      <c r="O40" t="s">
+        <v>91</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>360</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>361</v>
+      </c>
+      <c r="J41" t="s">
+        <v>362</v>
+      </c>
+      <c r="K41" t="s">
+        <v>363</v>
+      </c>
+      <c r="L41" t="s">
+        <v>364</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>365</v>
+      </c>
+      <c r="O41" t="s">
+        <v>199</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>366</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>367</v>
+      </c>
+      <c r="J42" t="s">
+        <v>368</v>
+      </c>
+      <c r="K42" t="s">
+        <v>369</v>
+      </c>
+      <c r="L42" t="s">
+        <v>370</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>371</v>
+      </c>
+      <c r="O42" t="s">
+        <v>199</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_226.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_226.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="593">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,105 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r608870105-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107956</t>
+  </si>
+  <si>
+    <t>608870105</t>
+  </si>
+  <si>
+    <t>08/21/2018</t>
+  </si>
+  <si>
+    <t>Best Hotel with Excellent Team</t>
+  </si>
+  <si>
+    <t>I would like to acknowledge the outstsnding service Manager Mrs. KIM and front desk attendant Ms. JAZZMINE provided during Check-In. They were able to communicate and work together to find the best resolution for an issue on hand. How they treated me and other guest I knew I was in an excellent managed Hotel. I recommend this Hotel to everyone and I will book again!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>I would like to acknowledge the outstsnding service Manager Mrs. KIM and front desk attendant Ms. JAZZMINE provided during Check-In. They were able to communicate and work together to find the best resolution for an issue on hand. How they treated me and other guest I knew I was in an excellent managed Hotel. I recommend this Hotel to everyone and I will book again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r601221748-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>601221748</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t>Left this place with a stolen eye and tiny bites :/</t>
+  </si>
+  <si>
+    <t>The Good: The front desk people were friendly. The Bad: 1) The whole place reeked. I walked in and the air felt thick with grossness.    (I should have turned and ran at this point)2) The room: smelled like no one had given it a good clean EVER. The hard floors were sticky, the remote was sticky (I gag just thinking about what nastiness lives on that remote). There was a mysterious puddle of water in the middle of the kitchen floor that never evaporated. I'm telling you, this place was BAD. The UGLY:I woke up with my left eye swollen and tiny bites all over my body!!! God only knows what nastiness I sleep in on that bed. And I did my best not to touch the top cover only the sheets that supposedly get washed. Plus there was what looked to be blood splatter near an outlet (see pic). Overall this was the worst hotel I've ever stayed at. I've stayed in Motel 6s and Super 8s in tiny towns in New Mexico and Louisiana that were WAY cleaner that this joint!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded July 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2018</t>
+  </si>
+  <si>
+    <t>The Good: The front desk people were friendly. The Bad: 1) The whole place reeked. I walked in and the air felt thick with grossness.    (I should have turned and ran at this point)2) The room: smelled like no one had given it a good clean EVER. The hard floors were sticky, the remote was sticky (I gag just thinking about what nastiness lives on that remote). There was a mysterious puddle of water in the middle of the kitchen floor that never evaporated. I'm telling you, this place was BAD. The UGLY:I woke up with my left eye swollen and tiny bites all over my body!!! God only knows what nastiness I sleep in on that bed. And I did my best not to touch the top cover only the sheets that supposedly get washed. Plus there was what looked to be blood splatter near an outlet (see pic). Overall this was the worst hotel I've ever stayed at. I've stayed in Motel 6s and Super 8s in tiny towns in New Mexico and Louisiana that were WAY cleaner that this joint!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r563080260-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>563080260</t>
+  </si>
+  <si>
+    <t>02/26/2018</t>
+  </si>
+  <si>
+    <t>business trip</t>
+  </si>
+  <si>
+    <t>Overall a decent place at a decent rate. I enjoyed my week long visit with them. Has good hwy access and plenty of restaurants nearby and a Walmart about a mile away if needed. I didn't observe any security issues during visit, but noticed they had overnight security on site.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded February 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2018</t>
+  </si>
+  <si>
+    <t>Overall a decent place at a decent rate. I enjoyed my week long visit with them. Has good hwy access and plenty of restaurants nearby and a Walmart about a mile away if needed. I didn't observe any security issues during visit, but noticed they had overnight security on site.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r553089256-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>107956</t>
-  </si>
-  <si>
     <t>553089256</t>
   </si>
   <si>
@@ -175,9 +262,6 @@
   </si>
   <si>
     <t>January 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>00esa, Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded January 11, 2018</t>
@@ -249,6 +333,57 @@
 There is some construction going on, which is fine – it is good to see them improving; but the fact they closed a fire exit without notifying anyone in advance was rather concerning. Keeping the trash bin in the hallway, from which the odor would make it into my room, was short sighted and disgusting. I also have a problem with finding used needles and used...The hotel was okay. I would stay here again, to be sure; so keep that in mind when you read my review. My hotel reviews are judged on three primary points: is the hotel clean? Quiet? Is the bed comfortable?Cleanliness leaves a lot to be desired here. While my room was tidy, there were remnants of past guests under the bed (dirty underwear, dirt, coins, etc.). There was also a can lid under the trash can; the top of the refrigerator was disgustingly dirty, and the cabinets were all dusty. I asked that these issues be addressed from minutes after I checked into the room; and continued to ask daily for the first week of my stay – but this was never actually addressed. Sure, they came and changed my towels, but no one ever cleaned up the nastiness.I think it is important to note, although there were issues with lazy housekeeping practices and lack of effective management, I did not see any pests or bugs at all (and I’m pretty thorough).There is some construction going on, which is fine – it is good to see them improving; but the fact they closed a fire exit without notifying anyone in advance was rather concerning. Keeping the trash bin in the hallway, from which the odor would make it into my room, was short sighted and disgusting. I also have a problem with finding used needles and used diapers in the hotel parking area – though they were cleaned up within a couple of days; and this is more a reflection on the other guests than on the hotel itself (though anything such as this should have been cleaned within hours, not days).The hotel was remarkably quiet, which is a plus; but the bed was like sleeping on a stone tablet. When I checked the mattress, I did note it appeared new – which given the cleanliness notes above, is a big plus.I will also comment that the water pressure in the shower was downright pathetic. I can understand and appreciate the green approach with regards to water conservation, but the shower is borderline ineffective. It took three times longer to rinse off than normal, which hardly helps conserve water.Their “free” WIFI is equally sad. I’ve been on dial-up connections in sub-Saharan Africa with better speed and less drop-outs. They charge for “premium” internet speeds, and therefore make their free option so miserable as to leave their guests no choice but to upgrade (hmm, sounds like the current warnings about keeping net neutrality). I used it primarily for e-mail only; for web browsing, I just tethered to my mobile phone – it was faster.Lastly, their claims for “breakfast included” are overstated. They provide coffee and a few dry cereal bars. There is no “breakfast included”, despite their claims to the contrary.So I would stay here again, but it would certainly not be my first choice. If I found another hotel with similar marks for cleanliness, but higher marks for comfort, I would strongly consider it – even if it means paying more.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r531877689-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>531877689</t>
+  </si>
+  <si>
+    <t>10/10/2017</t>
+  </si>
+  <si>
+    <t>Fire and Police</t>
+  </si>
+  <si>
+    <t>Other hotel guests stacked trash in the hallways. The trash containers in the stairwells make reek of trash. The tub didn't drain properly, and the police, and fire departments were called due to suspected arson.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded October 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2017</t>
+  </si>
+  <si>
+    <t>Other hotel guests stacked trash in the hallways. The trash containers in the stairwells make reek of trash. The tub didn't drain properly, and the police, and fire departments were called due to suspected arson.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r544350784-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>544350784</t>
+  </si>
+  <si>
+    <t>10/05/2017</t>
+  </si>
+  <si>
+    <t>5454 Hollister Extended Stay America treats you like ROYALTY</t>
+  </si>
+  <si>
+    <t>There are so many positives to mention.....Great STAFF, the rooms are top notch, very comfortable bed, great kitchen (up to date, microwave, refrig, oven , cabinets etc .), Full size bathtub in a comfortable up to date bathroom, all fixtures are up to date and working well, large big screen tv with free cable and free wi-fi.  i love the outdoor pool in the palm tree setting, AND MUCH, MUCH more...MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded December 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2017</t>
+  </si>
+  <si>
+    <t>There are so many positives to mention.....Great STAFF, the rooms are top notch, very comfortable bed, great kitchen (up to date, microwave, refrig, oven , cabinets etc .), Full size bathtub in a comfortable up to date bathroom, all fixtures are up to date and working well, large big screen tv with free cable and free wi-fi.  i love the outdoor pool in the palm tree setting, AND MUCH, MUCH more...More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r506662374-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
   </si>
   <si>
@@ -294,12 +429,6 @@
     <t>Krissy Hudson was great at recommending this place. Very professional and attentive. She does need better support in the evening/overnight. But those shifts are hard to fill and the staff that is here is kind.MoreShow less</t>
   </si>
   <si>
-    <t>October 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded October 13, 2017</t>
   </si>
   <si>
@@ -333,6 +462,60 @@
     <t>The facility has the potentials of being a very nice place. the rooms has plenty of space. Some the work that is needed is repairing of stoves, air conditioner units, housekeeping staff.  Otherwise. This would be a nice placeMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r495295474-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>495295474</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>I had an amazing stay at ESA. Check-in was quick and easy, the room was comfortable, and the staff was very friendly. The hotel was presented with cleanliness both inside and outside. My room also had a nice view of the pool and the breakfast was great; please note that it was of the grab &amp; go variety.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2017</t>
+  </si>
+  <si>
+    <t>I had an amazing stay at ESA. Check-in was quick and easy, the room was comfortable, and the staff was very friendly. The hotel was presented with cleanliness both inside and outside. My room also had a nice view of the pool and the breakfast was great; please note that it was of the grab &amp; go variety.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r491475555-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>491475555</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>Excellent place to be!</t>
+  </si>
+  <si>
+    <t>The staff here is awesome and the place looks amazing! You should definitely stay here!! I was here for 6 months and absolutely loved it!! The grab and go breakfast is perfect for those mornings where you need some great coffee and breakfast that is good to grab and go!!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded June 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2017</t>
+  </si>
+  <si>
+    <t>The staff here is awesome and the place looks amazing! You should definitely stay here!! I was here for 6 months and absolutely loved it!! The grab and go breakfast is perfect for those mornings where you need some great coffee and breakfast that is good to grab and go!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r489752401-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
   </si>
   <si>
@@ -411,6 +594,63 @@
     <t>Hotel stay was great. The receptionists were exceptional. Jazzmine was really professional and excellent in service delivery.The hotel was clean and renovated. Looks better than the last time.I recommend it for someone.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r475671791-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>475671791</t>
+  </si>
+  <si>
+    <t>04/14/2017</t>
+  </si>
+  <si>
+    <t>Excellent customer service!!</t>
+  </si>
+  <si>
+    <t>This extended stay America was very clean and well worth the money. It's conveniently nearby to everything that you would need, plenty of restaurants, a nearby Walmart and easy access to the 290 that leads you to all the different parts of Houston. I was mostly impressed by the up keeping of the hotel and their friendly and helpful front desk that always gives you a 5 star service. I would definitely recommend this location for anyone needing a place to stay while visiting Houston for an extended period of time or relocating from another city!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded May 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2017</t>
+  </si>
+  <si>
+    <t>This extended stay America was very clean and well worth the money. It's conveniently nearby to everything that you would need, plenty of restaurants, a nearby Walmart and easy access to the 290 that leads you to all the different parts of Houston. I was mostly impressed by the up keeping of the hotel and their friendly and helpful front desk that always gives you a 5 star service. I would definitely recommend this location for anyone needing a place to stay while visiting Houston for an extended period of time or relocating from another city!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r475380779-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>475380779</t>
+  </si>
+  <si>
+    <t>04/13/2017</t>
+  </si>
+  <si>
+    <t>Great Stay!!!</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for a while on business. Loved it!  Thumbs up to the staff who were always attentive and professional. It was always a pleasure dealing with all of them and especially Mrs Deianari who was super courteous and on the ball with us all the time. The rooms are clean and spacious and the furnishings awesome. I'm going to return!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded May 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2017</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for a while on business. Loved it!  Thumbs up to the staff who were always attentive and professional. It was always a pleasure dealing with all of them and especially Mrs Deianari who was super courteous and on the ball with us all the time. The rooms are clean and spacious and the furnishings awesome. I'm going to return!!! More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r464059329-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
   </si>
   <si>
@@ -426,9 +666,6 @@
     <t>This is now my most favorite locations to stay. The staff is great and welcoming, I'm feel very much so at home here. There are a wide variety of restaurants and stores near this location in walking distance.MoreShow less</t>
   </si>
   <si>
-    <t>March 2017</t>
-  </si>
-  <si>
     <t>Manager_11525, Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded March 8, 2017</t>
   </si>
   <si>
@@ -474,6 +711,54 @@
     <t>This place looks to be in a nice area,  it is clean, staff was nice, BUT within 30 minutes there was a murder within 40 yards of the parking lot. Few days later Our driver side windows where knocked out and vehicles were broken into. Come to find out this is very common for the area.  HPD said last time it happened (week before) the manager said it was too late and would not come to let them watch the  surveillance video.  There are always people walking the area. Very shady area. Seen very very suspicious activity going on when getting gas within a block. I would not recommend this place to anyone, especially anyone traveling alone.Rated as poor based on area. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r377907692-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>377907692</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t>Scary, dirty, disgusting place</t>
+  </si>
+  <si>
+    <t>Seems this place has not changed since I traveled here on a mom/daughter trip with my 2 young girls quite some time ago.  First, I arrived and found multiple grocery carts in the area directly behind the hotel and in a scary part of town. I got to our room on the first floor in the front of the building to find the window screen partially removed.  Due to my husband not being with me, I asked for a room that was not on the first floor, concerned for myself and daughters.  The next room had a VERY bad odor.  I called and asked about another room, instead they brought me a bottle of Febreeze!  After getting girls settled, I took out my laptop and found a different hotel for the remaining 6 nights.  Since I used timeshare points for this hotel, I was not able to get ANY refund, so spent point for 7 nights for nothing and still had a hotel bill at the other hotel for 6 nights.  Tried working with management on this, but nothing ever resolved.  I got their business card, tried to contact them but no response.  Gave up after many attempts. Did not read reviews due to being with timeshare... will NOT make that mistake again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Seems this place has not changed since I traveled here on a mom/daughter trip with my 2 young girls quite some time ago.  First, I arrived and found multiple grocery carts in the area directly behind the hotel and in a scary part of town. I got to our room on the first floor in the front of the building to find the window screen partially removed.  Due to my husband not being with me, I asked for a room that was not on the first floor, concerned for myself and daughters.  The next room had a VERY bad odor.  I called and asked about another room, instead they brought me a bottle of Febreeze!  After getting girls settled, I took out my laptop and found a different hotel for the remaining 6 nights.  Since I used timeshare points for this hotel, I was not able to get ANY refund, so spent point for 7 nights for nothing and still had a hotel bill at the other hotel for 6 nights.  Tried working with management on this, but nothing ever resolved.  I got their business card, tried to contact them but no response.  Gave up after many attempts. Did not read reviews due to being with timeshare... will NOT make that mistake again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r353617915-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>353617915</t>
+  </si>
+  <si>
+    <t>03/07/2016</t>
+  </si>
+  <si>
+    <t>Nothing but disappointment</t>
+  </si>
+  <si>
+    <t>I chose to stay here for a 3 week work trip. I didn’t want to have to go out for dinner every night.  Unfortunately I was told that there was no cookware available for me, they said it was stolen from previous guests. They had limited plates and silverware, no bowls were available either. No hangers in the closet. I was told they just upgraded their internet connection.  Slow doesn’t even describe it. I could get .5 or .7 MB’s per second. They do offer an upgrade for $15 per week. This resulted in 2.5 MB’s per second at first. The carpet had numerous stains; there was mold under the sink area. No drain catcher in the kitchen sink. Cupboards had crumbs in them.  There was a missing outlet cover. Poor maintenance techniques and repairs. I had ants on the writing desk. The toilet had a big crack in it.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded March 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2016</t>
+  </si>
+  <si>
+    <t>I chose to stay here for a 3 week work trip. I didn’t want to have to go out for dinner every night.  Unfortunately I was told that there was no cookware available for me, they said it was stolen from previous guests. They had limited plates and silverware, no bowls were available either. No hangers in the closet. I was told they just upgraded their internet connection.  Slow doesn’t even describe it. I could get .5 or .7 MB’s per second. They do offer an upgrade for $15 per week. This resulted in 2.5 MB’s per second at first. The carpet had numerous stains; there was mold under the sink area. No drain catcher in the kitchen sink. Cupboards had crumbs in them.  There was a missing outlet cover. Poor maintenance techniques and repairs. I had ants on the writing desk. The toilet had a big crack in it.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r338673805-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
   </si>
   <si>
@@ -531,6 +816,48 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r235791535-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>235791535</t>
+  </si>
+  <si>
+    <t>10/22/2014</t>
+  </si>
+  <si>
+    <t>Not a family friendly area</t>
+  </si>
+  <si>
+    <t>I should have known better when I arrive in the one and only entrance is through an adult sex shop! Next door behind the fence is a strip club!  I had stayed two weeks with my kids and by the 10th day I had had enough strippers coming from their work to the hotel.highway traffic..beer cans in the lot.the hotel pics are accurate.. carpet smells like smoke and cat pee in my room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r222201224-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>222201224</t>
+  </si>
+  <si>
+    <t>08/16/2014</t>
+  </si>
+  <si>
+    <t>Eehhhh?</t>
+  </si>
+  <si>
+    <t>Convenient location.  But seemed to be under some repair and updating (which is much needed). Building smells musty and like mildew. I had a non smoking room but I don't believe the previous guest followed that ... room was stale, furniture and bedding smelled old. But the kicker was there was no cup, glass - even plastic --- NOTHING AT ALL. Will be in town soon again for business but will NOT be staying here!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded August 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2014</t>
+  </si>
+  <si>
+    <t>Convenient location.  But seemed to be under some repair and updating (which is much needed). Building smells musty and like mildew. I had a non smoking room but I don't believe the previous guest followed that ... room was stale, furniture and bedding smelled old. But the kicker was there was no cup, glass - even plastic --- NOTHING AT ALL. Will be in town soon again for business but will NOT be staying here!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r195103917-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
   </si>
   <si>
@@ -601,6 +928,42 @@
   </si>
   <si>
     <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r169939474-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>169939474</t>
+  </si>
+  <si>
+    <t>07/30/2013</t>
+  </si>
+  <si>
+    <t>The WORST hotel I've ever stayed at!</t>
+  </si>
+  <si>
+    <t>We travel approx. 9 months a year.  Last summer we arrived and initially everything seemed fine except the A/C was not cooling the room. We called the desk and they told us they didn't have another room but they would send maintenance to fix in the morning. The next day, maintenance comes in and removes the unit and then brings it back with a newer cover on it and tells me it's a new unit.... 2 hours later, the room is reading 86. I called the desk again, they tell me the maintenance man has left for the day. They also tell me that they still don't have any other rooms to move us to.  I could tell by the managers attitude that she could care less about the problem.  We had booked the room for 3 months stay.  The next day we were told they would have to order a part to fix the A/C and not sure how long it would take to fix.  We immediately packed up and checked out!  3 days, 2 nights and $168.00 LOST...  If you stay 30 days, you get the cheaper rate plus no tax. Because we checked out early, we had to pay full rate + tax.MoreShow less</t>
+  </si>
+  <si>
+    <t>We travel approx. 9 months a year.  Last summer we arrived and initially everything seemed fine except the A/C was not cooling the room. We called the desk and they told us they didn't have another room but they would send maintenance to fix in the morning. The next day, maintenance comes in and removes the unit and then brings it back with a newer cover on it and tells me it's a new unit.... 2 hours later, the room is reading 86. I called the desk again, they tell me the maintenance man has left for the day. They also tell me that they still don't have any other rooms to move us to.  I could tell by the managers attitude that she could care less about the problem.  We had booked the room for 3 months stay.  The next day we were told they would have to order a part to fix the A/C and not sure how long it would take to fix.  We immediately packed up and checked out!  3 days, 2 nights and $168.00 LOST...  If you stay 30 days, you get the cheaper rate plus no tax. Because we checked out early, we had to pay full rate + tax.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r164502757-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>164502757</t>
+  </si>
+  <si>
+    <t>06/19/2013</t>
+  </si>
+  <si>
+    <t>Never again</t>
+  </si>
+  <si>
+    <t>The apperance on the outside is very different from the inside. The lobby area needs some attention-the carpet needs to be cleaned, it looked very dingy. Air conditioning in this place was almost non existent. It felt warm in this hotel for the most part. The room I asked for was a non-smoking and was put in a smoking room, and no chance for change because of being sold out. Sorry not coming here again.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r158759982-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
@@ -631,9 +994,6 @@
     <t>April 2013</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Manager_11525, General Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded April 26, 2013</t>
   </si>
   <si>
@@ -706,6 +1066,54 @@
     <t>I booked this through hotwire.com, and I was very pleased with how it turned out. Obviously, the price was good. But, I'd have to say I was surprised at how good the property was considering some of the reviews I've read. The room was very clean. There was no noise problem. This area of Houston is just fine (it's mostly a business/retail area), and security was very visible in the parking lot as I returned late at night after business. The full kitchen is good, and I liked the recliner chair. There was not a problem, not one, and I'd stay here again. It sure helped that the location was close to my business site and not far from a good golf course -- the excellent public facility at Memorial Park.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r155413763-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155413763</t>
+  </si>
+  <si>
+    <t>03/23/2013</t>
+  </si>
+  <si>
+    <t>Not happy</t>
+  </si>
+  <si>
+    <t>I based my stay on reviews here so I'll share my experience. The price was decent but this is in a rather unpleasant part of town and the accommodations were barely adequate in my opinion. My bathroom had multiple problems, the bedding was bad and there was a pervasive bad smell throughout.  I think the extra money for a Candlewood suites would have been worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded March 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2013</t>
+  </si>
+  <si>
+    <t>I based my stay on reviews here so I'll share my experience. The price was decent but this is in a rather unpleasant part of town and the accommodations were barely adequate in my opinion. My bathroom had multiple problems, the bedding was bad and there was a pervasive bad smell throughout.  I think the extra money for a Candlewood suites would have been worth it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r154516996-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154516996</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>Nice stay.</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay. It was clean, quite, and the front desk staff were very nice. My room needed kitchen soaps and shampoo, and the hallways needs the carpet changed. Other than that, I was very happy.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded March 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2013</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay. It was clean, quite, and the front desk staff were very nice. My room needed kitchen soaps and shampoo, and the hallways needs the carpet changed. Other than that, I was very happy.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r153709374-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
   </si>
   <si>
@@ -781,6 +1189,45 @@
     <t>If you do not have a problem with doing your own housekeeping, this hotel is for you. I have never stayed in a hotel where I had to change my linen and take them down to the front desk to exchange them. This not only applied to the towels, but also to the sheets, WOW! Housekeeping was only available for the rooms of persons checking out. And the breakfast was a joke.  No juice, only coffee and muffins and breakfast bars. There were two good things:  Location and Size of room.  Close to lots of shopping and food and the rooms were very spacious. WOULD NOT RECOMMEND THIS HOTEL.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r152003572-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152003572</t>
+  </si>
+  <si>
+    <t>02/12/2013</t>
+  </si>
+  <si>
+    <t>Ms. Satisfied</t>
+  </si>
+  <si>
+    <t>Very nice staff and excellent service &amp; hotel I would definitely return for another stay. I would recommend this hotel to all my friends. It was very impressive to have such a comfortable atmosphere. The convenience of having different stores to shop at around the hotel area was a plus also. I think that the manager &amp; staff members must work hand in hand to keep this hotel such an wonderful place. Home away from home MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded February 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2013</t>
+  </si>
+  <si>
+    <t>Very nice staff and excellent service &amp; hotel I would definitely return for another stay. I would recommend this hotel to all my friends. It was very impressive to have such a comfortable atmosphere. The convenience of having different stores to shop at around the hotel area was a plus also. I think that the manager &amp; staff members must work hand in hand to keep this hotel such an wonderful place. Home away from home More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r152001102-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152001102</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>This is a great hotel i will stay here again and also recommend it to friends and family. The staff or great peoples and latoya have been got to me since I checked making sure I have everything I need.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a great hotel i will stay here again and also recommend it to friends and family. The staff or great peoples and latoya have been got to me since I checked making sure I have everything I need.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r151231004-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
   </si>
   <si>
@@ -850,6 +1297,57 @@
     <t>I'm not big on extended stay hotels.  Got this hotel on Priceline for a good rate and it was 2.5 stars with high ratings so I took it.  Certainly don't think it deserves the high ratings that it has.  Funky smell in the hallway (think nursing home) and even the smell of weed as we came in at nite in the hallway - this was ok in my college days but don't have the same appreciation today....but this is to be expected at a discount hotel with discount minded clientele.  We had a single bed - Queen bed with cheap mattress - once again I had to remind myself I was at discount hotel not Hilton.  Overall hotel was clean so give them credit where credit is due.  Definitely need to clean carpets though more frequently.  If you are on a tight budget an use to staying in cheap hotels you will like this hotel because it is the Ritz Carlton of cheap hotels....More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r150021937-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150021937</t>
+  </si>
+  <si>
+    <t>01/19/2013</t>
+  </si>
+  <si>
+    <t>Terrible place to stay.  If you need drugs then come here.</t>
+  </si>
+  <si>
+    <t>We just stayed here for three days and it was horrible.  My wife and I where on the first floor and for three days there was so many people going in and out of the room above us.  All night and all day dirty looking people coming in and out.  There was so much noise coming from the lobby,  I guess there was a football party.  I tried to complain at the front desk, but I guess everyone goes home after midnight.  There where drunk guys grilling by the pool, and urinating in the bushes.  The gym equipment was dirty and wet.  The girl at the desk gave me a card with the supervisors number, and I left her many messages and she never called back.  This was the first time my company has used them, and it will be the last.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded January 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2013</t>
+  </si>
+  <si>
+    <t>We just stayed here for three days and it was horrible.  My wife and I where on the first floor and for three days there was so many people going in and out of the room above us.  All night and all day dirty looking people coming in and out.  There was so much noise coming from the lobby,  I guess there was a football party.  I tried to complain at the front desk, but I guess everyone goes home after midnight.  There where drunk guys grilling by the pool, and urinating in the bushes.  The gym equipment was dirty and wet.  The girl at the desk gave me a card with the supervisors number, and I left her many messages and she never called back.  This was the first time my company has used them, and it will be the last.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r147445368-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147445368</t>
+  </si>
+  <si>
+    <t>12/14/2012</t>
+  </si>
+  <si>
+    <t>Excellent staff, clean rooms, and great location.</t>
+  </si>
+  <si>
+    <t>Been here since June 2012. Staff is very friendly and goes out of the way to make sure my stay is pleasant. First impressions are important and the cleanliness of the outside and inside are always kept up. I just can't say enough about the whole staff. You can tell by their upbeat attitude that they truly enjoy coming to workMoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded January 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2013</t>
+  </si>
+  <si>
+    <t>Been here since June 2012. Staff is very friendly and goes out of the way to make sure my stay is pleasant. First impressions are important and the cleanliness of the outside and inside are always kept up. I just can't say enough about the whole staff. You can tell by their upbeat attitude that they truly enjoy coming to workMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r146302334-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
   </si>
   <si>
@@ -928,6 +1426,54 @@
     <t>I'm currently a guest resident at the extended stay america and I must say it as been a pleasure to be here. LaTonya and her staff are very friendly,efficient,attentive, and very helpful and resource. I would recommend this property for anyone coming for an extended stay or for a night or two.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r144005782-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144005782</t>
+  </si>
+  <si>
+    <t>10/29/2012</t>
+  </si>
+  <si>
+    <t>Efficiency with some space</t>
+  </si>
+  <si>
+    <t>I guess this Extended Stay was recently upgraded to a Deluxe, but it is still just an extended stay property but with bagels and muffins. Rooms are nice and large with a kitchenette separate from the living area and the bed in its own area. Furniture in good condition except for the bed's mattress, its time to change out the bedding when there is a well worn dip in the middle.While everything else was fine, I do book hotel rooms to sleep in. Every room has a few flaws that can be overlooked this took it from very good to average. I would have let them know if asked how my stay was but the young lady that check-ed me out did not seem that interested.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded October 31, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2012</t>
+  </si>
+  <si>
+    <t>I guess this Extended Stay was recently upgraded to a Deluxe, but it is still just an extended stay property but with bagels and muffins. Rooms are nice and large with a kitchenette separate from the living area and the bed in its own area. Furniture in good condition except for the bed's mattress, its time to change out the bedding when there is a well worn dip in the middle.While everything else was fine, I do book hotel rooms to sleep in. Every room has a few flaws that can be overlooked this took it from very good to average. I would have let them know if asked how my stay was but the young lady that check-ed me out did not seem that interested.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r142953493-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142953493</t>
+  </si>
+  <si>
+    <t>10/16/2012</t>
+  </si>
+  <si>
+    <t>Management and staff are awesome</t>
+  </si>
+  <si>
+    <t>Manager LaTonya is wonderful. She Is very accommodating and friendly. I have been here over a year and have never had a problem that wasn’t resolved in a very short period of time. Cleaning staff does amazing jobs in the rooms and the front desk staff know me by name and have always been a pleasure to talk too. If you need a place to stay in the Northwest area of Houston, I HIGHLY recommend Extended Stay America on Hollister. A+ Facility all the way!MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded October 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2012</t>
+  </si>
+  <si>
+    <t>Manager LaTonya is wonderful. She Is very accommodating and friendly. I have been here over a year and have never had a problem that wasn’t resolved in a very short period of time. Cleaning staff does amazing jobs in the rooms and the front desk staff know me by name and have always been a pleasure to talk too. If you need a place to stay in the Northwest area of Houston, I HIGHLY recommend Extended Stay America on Hollister. A+ Facility all the way!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r140267450-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
   </si>
   <si>
@@ -1003,6 +1549,51 @@
     <t>I walked in and was greated with a smiling face.  Even though the area was without power due to some severe weather.   They were kind enough to take all my information, and put myself and my coworker in a room.  They just asked once power was on to come back so they could get a copy of our ID's.  They were courtious enough to call a day ahead and make sure we had enough nights due to the nature of our travels.  The room was very tidy and clean.  The whole hotel was clean smelling and quiet.  Even though this whole establishment was completely booked, it was pleasant none the less to stay here.  I will be more than happy to stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r131169723-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>131169723</t>
+  </si>
+  <si>
+    <t>06/02/2012</t>
+  </si>
+  <si>
+    <t>Great experience!</t>
+  </si>
+  <si>
+    <t>This was our first time to Houston Texas and at this hotel.. I enjoyed everything about this place! I love the cleaness, promptness of the staff  and how they made you feel so welcomed! I LOVED the greeting I recieved in the Lobby in the morning and at night! The staff at the front desk was so courtious and always had a smile on their face!  The rooms were clean and it was a great little home away from home. We enjoyed everything about this hotel and will DEFINITELY stay again in the future!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>This was our first time to Houston Texas and at this hotel.. I enjoyed everything about this place! I love the cleaness, promptness of the staff  and how they made you feel so welcomed! I LOVED the greeting I recieved in the Lobby in the morning and at night! The staff at the front desk was so courtious and always had a smile on their face!  The rooms were clean and it was a great little home away from home. We enjoyed everything about this hotel and will DEFINITELY stay again in the future!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r130625249-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130625249</t>
+  </si>
+  <si>
+    <t>05/26/2012</t>
+  </si>
+  <si>
+    <t>great place to stay</t>
+  </si>
+  <si>
+    <t>i thoroughly enjoyed my room at extended stay, the staff were extremely polite and helpful. what really got me was that every morning, there was fresh coffee alongside bagels and muffins just waiting for guests in the lobby. my only grievance is that they do not have kat 5 cables/ethernet cables for there guests. Me, having stayed at extended stays before, was expecting them too. i brought my x-box along and thank goodness i brought a wireless adapter because it would be useless, plus the fact that when i first plugged in my laptop i realized why... they want to charge extra for a highspeed connection!!! i was thoroughly disappointed. the other extended stays all have been able to provide me with ethernet cords so far for free without trying to get extra money. that majorly disappointed me. sry extended but you need to change that. id rather pay 10$ more to stay somewhere that can provide me an ethernet cord and not try to rip me off $3 dollars a day for highspeed WIRELESS internet, what a joke. wireless only gets so fast. other than that the features and ammenities where great and the staff friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded June 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2012</t>
+  </si>
+  <si>
+    <t>i thoroughly enjoyed my room at extended stay, the staff were extremely polite and helpful. what really got me was that every morning, there was fresh coffee alongside bagels and muffins just waiting for guests in the lobby. my only grievance is that they do not have kat 5 cables/ethernet cables for there guests. Me, having stayed at extended stays before, was expecting them too. i brought my x-box along and thank goodness i brought a wireless adapter because it would be useless, plus the fact that when i first plugged in my laptop i realized why... they want to charge extra for a highspeed connection!!! i was thoroughly disappointed. the other extended stays all have been able to provide me with ethernet cords so far for free without trying to get extra money. that majorly disappointed me. sry extended but you need to change that. id rather pay 10$ more to stay somewhere that can provide me an ethernet cord and not try to rip me off $3 dollars a day for highspeed WIRELESS internet, what a joke. wireless only gets so fast. other than that the features and ammenities where great and the staff friendly and helpful.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r130583029-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
   </si>
   <si>
@@ -1021,12 +1612,6 @@
     <t>April 2012</t>
   </si>
   <si>
-    <t>ChristopherTM, Manager at Extended Stay America - Houston - Northwest - HWY 290 - Hollister, responded to this reviewResponded June 13, 2012</t>
-  </si>
-  <si>
-    <t>Responded June 13, 2012</t>
-  </si>
-  <si>
     <t>The staff &amp; management have been extremely helpful and very friendly. The maintenance &amp; up keep at this hotel is second to none. Would highly recommend this hotel to anyone, including families, and I have already booked to bring my family &amp; friends from Scotland next May for a vacation. Regards Mr Glenn McMillan from ScotlandMore</t>
   </si>
   <si>
@@ -1072,6 +1657,42 @@
     <t>I spent a week at this hotel, and there was not a morning, nor evening, that I walked through the front door and was not greeted with a smile and a kind word from the desk clerks.The rooms are large, comfortable, clean and fresh.  The location is not far from various places to eat and shop, but at the same time, there is not a bunch of  traffic noise at night to keep you awake. They provide anything you could possibly need, and if its not already in the room, all you have to do is ask... I really enjoyed my stay, and will make it my choice of hotels.. not only this location, but anywhere else I have to travel as well.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r59555834-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>59555834</t>
+  </si>
+  <si>
+    <t>03/25/2010</t>
+  </si>
+  <si>
+    <t>i would definitely stay there again the next time i visit Houston</t>
+  </si>
+  <si>
+    <t>The room was very clean, quiet and the staff were friendly. What i love the most was that it felt like home and not to mention, theres security at night, so dont worry about your car. Also, the hotel is near Target, Best Buy, food places etc. I would stay there again.</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r53326843-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>53326843</t>
+  </si>
+  <si>
+    <t>01/12/2010</t>
+  </si>
+  <si>
+    <t>The whole package</t>
+  </si>
+  <si>
+    <t>Great rooms with apartment size kitchens fully furnished as well as roomy desk &amp; tv areas &amp; great staff not to mention the cable tv &amp; high speed internet.  Also, the cleanest hotel I have EVER stayed in.</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r52436566-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
   </si>
   <si>
@@ -1124,6 +1745,45 @@
   </si>
   <si>
     <t>March 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r24789336-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>24789336</t>
+  </si>
+  <si>
+    <t>02/19/2009</t>
+  </si>
+  <si>
+    <t>Good place to stay in Houston, Tx.</t>
+  </si>
+  <si>
+    <t>Wonderful property with great staff, rooms are clean and comfortable. great location right offf the expressway with plenty of restaurants in the area.. I travel to Houston three to four times a year on business and will not stay any place else.</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r15860545-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>15860545</t>
+  </si>
+  <si>
+    <t>05/09/2008</t>
+  </si>
+  <si>
+    <t>A Gem for longer term</t>
+  </si>
+  <si>
+    <t>Went to Houston to find a home to settle. Had to find something within a decent budget that wasn't a dive. THIS IS IT!! It's nothing fancy, but it's super clean, and super accommodating. The rooms are spacious, fully equipped and tastefully decorated. Like I said, it's not a fancy place, but it's perfect for longer term stays. I paid only $70 ish per night. It's conveniently located, pretty quiet, at least our room was. They have a laundry room and a pool. It's really a nice place to stay. They charge only $4.99 for Internet for your entire stay. There's extended cable TV with Showtime and HBO, a full kitchen, large bathroom, desk area, hair dryer, and iron and ironing board. For one person it's awesome, for three, it wasn't even crowded. I really enjoyed my stay and would highly recommend it to anyone needing a longer term at a good price. It is definitely priced right for what you get. The staff is not super friendly, but are pleasant and helpful....MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>Went to Houston to find a home to settle. Had to find something within a decent budget that wasn't a dive. THIS IS IT!! It's nothing fancy, but it's super clean, and super accommodating. The rooms are spacious, fully equipped and tastefully decorated. Like I said, it's not a fancy place, but it's perfect for longer term stays. I paid only $70 ish per night. It's conveniently located, pretty quiet, at least our room was. They have a laundry room and a pool. It's really a nice place to stay. They charge only $4.99 for Internet for your entire stay. There's extended cable TV with Showtime and HBO, a full kitchen, large bathroom, desk area, hair dryer, and iron and ironing board. For one person it's awesome, for three, it wasn't even crowded. I really enjoyed my stay and would highly recommend it to anyone needing a longer term at a good price. It is definitely priced right for what you get. The staff is not super friendly, but are pleasant and helpful....More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107956-r8522110-Extended_Stay_America_Houston_Northwest_HWY_290_Hollister-Houston_Texas.html</t>
@@ -1705,22 +2365,12 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1768,7 +2418,7 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N3" t="s">
         <v>62</v>
@@ -1776,12 +2426,18 @@
       <c r="O3" t="s">
         <v>53</v>
       </c>
-      <c r="P3" t="s"/>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -1835,29 +2491,35 @@
         <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
       </c>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -1873,7 +2535,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1882,41 +2544,41 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1965,41 +2627,31 @@
         <v>89</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
         <v>90</v>
       </c>
       <c r="O6" t="s">
-        <v>91</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>4</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
         <v>92</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>93</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="7">
@@ -2015,7 +2667,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2024,41 +2676,35 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
         <v>96</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>97</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>98</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
         <v>99</v>
       </c>
-      <c r="M7" t="n">
-        <v>2</v>
-      </c>
-      <c r="N7" t="s">
-        <v>80</v>
-      </c>
       <c r="O7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" t="n">
         <v>3</v>
       </c>
-      <c r="S7" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -2107,25 +2753,29 @@
         <v>107</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
         <v>108</v>
       </c>
       <c r="O8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
       <c r="Q8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -2177,16 +2827,20 @@
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="O9" t="s">
         <v>53</v>
       </c>
-      <c r="P9" t="s"/>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
       <c r="Q9" t="n">
         <v>5</v>
       </c>
-      <c r="R9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
       <c r="S9" t="n">
         <v>5</v>
       </c>
@@ -2198,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
+        <v>117</v>
+      </c>
+      <c r="X9" t="s">
         <v>118</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>119</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10">
@@ -2220,7 +2874,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2229,43 +2883,53 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" t="s">
         <v>122</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>123</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>124</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
         <v>125</v>
       </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>117</v>
-      </c>
       <c r="O10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="X10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
@@ -2281,7 +2945,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2290,32 +2954,42 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="O11" t="s">
-        <v>91</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
@@ -2363,27 +3037,41 @@
         <v>142</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="O12" t="s">
-        <v>91</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>143</v>
+      </c>
+      <c r="X12" t="s">
+        <v>144</v>
+      </c>
       <c r="Y12" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13">
@@ -2399,7 +3087,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2408,39 +3096,53 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="O13" t="s">
         <v>53</v>
       </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>152</v>
+      </c>
+      <c r="X13" t="s">
+        <v>153</v>
+      </c>
       <c r="Y13" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14">
@@ -2456,7 +3158,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2465,32 +3167,38 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="O14" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
       </c>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
         <v>5</v>
@@ -2498,10 +3206,14 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>161</v>
+      </c>
+      <c r="X14" t="s">
+        <v>162</v>
+      </c>
       <c r="Y14" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15">
@@ -2517,7 +3229,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2526,32 +3238,32 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="J15" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="K15" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="O15" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
@@ -2561,10 +3273,14 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>170</v>
+      </c>
+      <c r="X15" t="s">
+        <v>171</v>
+      </c>
       <c r="Y15" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
@@ -2580,7 +3296,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2589,45 +3305,49 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="J16" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="K16" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>179</v>
+      </c>
+      <c r="X16" t="s">
+        <v>180</v>
+      </c>
       <c r="Y16" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17">
@@ -2643,7 +3363,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2652,25 +3372,25 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="O17" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2682,13 +3402,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="X17" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="Y17" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
@@ -2704,7 +3424,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2713,53 +3433,43 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="J18" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="K18" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="O18" t="s">
-        <v>91</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>4</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="X18" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="Y18" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19">
@@ -2775,7 +3485,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2784,49 +3494,43 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="J19" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="K19" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4</v>
-      </c>
-      <c r="R19" t="n">
-        <v>4</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>4</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>206</v>
+      </c>
+      <c r="X19" t="s">
+        <v>207</v>
+      </c>
       <c r="Y19" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20">
@@ -2842,7 +3546,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2851,53 +3555,43 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="J20" t="s">
+        <v>211</v>
+      </c>
+      <c r="K20" t="s">
+        <v>212</v>
+      </c>
+      <c r="L20" t="s">
+        <v>213</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
         <v>195</v>
       </c>
-      <c r="K20" t="s">
-        <v>196</v>
-      </c>
-      <c r="L20" t="s">
-        <v>197</v>
-      </c>
-      <c r="M20" t="n">
-        <v>3</v>
-      </c>
-      <c r="N20" t="s">
-        <v>198</v>
-      </c>
       <c r="O20" t="s">
-        <v>199</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>3</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="X20" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="Y20" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21">
@@ -2913,7 +3607,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2922,53 +3616,39 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="J21" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="K21" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="O21" t="s">
-        <v>199</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>208</v>
-      </c>
-      <c r="X21" t="s">
-        <v>209</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22">
@@ -2984,7 +3664,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2993,53 +3673,39 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="J22" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="K22" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="L22" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>4</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>4</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>217</v>
-      </c>
-      <c r="X22" t="s">
-        <v>218</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23">
@@ -3055,7 +3721,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3064,53 +3730,45 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="J23" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="K23" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="L23" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="O23" t="s">
-        <v>91</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
       <c r="R23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>226</v>
-      </c>
-      <c r="X23" t="s">
-        <v>227</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24">
@@ -3126,7 +3784,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3135,49 +3793,49 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="J24" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="K24" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="L24" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>241</v>
+      </c>
+      <c r="O24" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
       <c r="R24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="X24" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="Y24" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25">
@@ -3193,7 +3851,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3202,53 +3860,43 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="J25" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="K25" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="L25" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="O25" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>242</v>
-      </c>
-      <c r="X25" t="s">
-        <v>243</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26">
@@ -3264,7 +3912,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3273,53 +3921,45 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J26" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="K26" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L26" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="O26" t="s">
-        <v>91</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R26" t="n">
         <v>3</v>
       </c>
-      <c r="S26" t="n">
-        <v>1</v>
-      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>251</v>
-      </c>
-      <c r="X26" t="s">
-        <v>252</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27">
@@ -3335,7 +3975,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3344,51 +3984,43 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="J27" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K27" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L27" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="O27" t="s">
-        <v>81</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
       <c r="R27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>260</v>
-      </c>
-      <c r="X27" t="s">
-        <v>261</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
         <v>262</v>
       </c>
@@ -3406,7 +4038,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3415,16 +4047,16 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J28" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="K28" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
@@ -3435,13 +4067,13 @@
         <v>3</v>
       </c>
       <c r="Q28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
@@ -3450,14 +4082,10 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>260</v>
-      </c>
-      <c r="X28" t="s">
-        <v>261</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29">
@@ -3473,7 +4101,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3482,53 +4110,43 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J29" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K29" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L29" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>3</v>
-      </c>
-      <c r="R29" t="n">
-        <v>3</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="X29" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Y29" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30">
@@ -3544,7 +4162,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3553,53 +4171,43 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K30" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
-      <c r="R30" t="n">
-        <v>4</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="X30" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Y30" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31">
@@ -3615,7 +4223,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3624,49 +4232,53 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J31" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K31" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L31" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>292</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
       <c r="P31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R31" t="n">
         <v>5</v>
       </c>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="X31" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Y31" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32">
@@ -3682,7 +4294,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3691,49 +4303,49 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="J32" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K32" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L32" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
-      </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>301</v>
+      </c>
+      <c r="O32" t="s">
+        <v>72</v>
+      </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>299</v>
-      </c>
-      <c r="X32" t="s">
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
         <v>300</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="33">
@@ -3770,41 +4382,33 @@
         <v>306</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
-      </c>
-      <c r="N33" t="s">
-        <v>307</v>
-      </c>
-      <c r="O33" t="s">
-        <v>53</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
       <c r="P33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>308</v>
-      </c>
-      <c r="X33" t="s">
-        <v>309</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34">
@@ -3820,7 +4424,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3829,53 +4433,49 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
+        <v>309</v>
+      </c>
+      <c r="J34" t="s">
+        <v>310</v>
+      </c>
+      <c r="K34" t="s">
+        <v>311</v>
+      </c>
+      <c r="L34" t="s">
         <v>312</v>
       </c>
-      <c r="J34" t="s">
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
         <v>313</v>
       </c>
-      <c r="K34" t="s">
-        <v>314</v>
-      </c>
-      <c r="L34" t="s">
-        <v>315</v>
-      </c>
-      <c r="M34" t="n">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s">
-        <v>307</v>
-      </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R34" t="n">
         <v>4</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s">
-        <v>316</v>
-      </c>
-      <c r="X34" t="s">
-        <v>317</v>
-      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35">
@@ -3891,7 +4491,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3900,53 +4500,53 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="J35" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="K35" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="L35" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="O35" t="s">
-        <v>91</v>
+        <v>196</v>
       </c>
       <c r="P35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R35" t="n">
         <v>5</v>
       </c>
       <c r="S35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="X35" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="Y35" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36">
@@ -3962,7 +4562,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3971,49 +4571,53 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="J36" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="K36" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="L36" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>196</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
       </c>
       <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
         <v>4</v>
-      </c>
-      <c r="R36" t="n">
-        <v>3</v>
       </c>
       <c r="S36" t="n">
         <v>3</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>328</v>
+      </c>
+      <c r="X36" t="s">
+        <v>329</v>
+      </c>
       <c r="Y36" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37">
@@ -4029,7 +4633,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4038,49 +4642,53 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
+        <v>332</v>
+      </c>
+      <c r="J37" t="s">
+        <v>333</v>
+      </c>
+      <c r="K37" t="s">
+        <v>334</v>
+      </c>
+      <c r="L37" t="s">
+        <v>335</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
         <v>336</v>
       </c>
-      <c r="J37" t="s">
-        <v>337</v>
-      </c>
-      <c r="K37" t="s">
-        <v>338</v>
-      </c>
-      <c r="L37" t="s">
-        <v>339</v>
-      </c>
-      <c r="M37" t="n">
-        <v>5</v>
-      </c>
-      <c r="N37" t="s">
-        <v>340</v>
-      </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
       </c>
       <c r="Q37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>337</v>
+      </c>
+      <c r="X37" t="s">
+        <v>338</v>
+      </c>
       <c r="Y37" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38">
@@ -4096,7 +4704,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4105,49 +4713,53 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
+        <v>341</v>
+      </c>
+      <c r="J38" t="s">
+        <v>342</v>
+      </c>
+      <c r="K38" t="s">
         <v>343</v>
       </c>
-      <c r="J38" t="s">
+      <c r="L38" t="s">
         <v>344</v>
       </c>
-      <c r="K38" t="s">
-        <v>345</v>
-      </c>
-      <c r="L38" t="s">
-        <v>346</v>
-      </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="O38" t="s">
-        <v>199</v>
+        <v>72</v>
       </c>
       <c r="P38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>345</v>
+      </c>
+      <c r="X38" t="s">
+        <v>346</v>
+      </c>
       <c r="Y38" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39">
@@ -4184,37 +4796,41 @@
         <v>352</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="O39" t="s">
         <v>53</v>
       </c>
       <c r="P39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>353</v>
+      </c>
+      <c r="X39" t="s">
+        <v>354</v>
+      </c>
       <c r="Y39" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40">
@@ -4230,7 +4846,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4239,25 +4855,25 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J40" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K40" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L40" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="O40" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4278,10 +4894,14 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>362</v>
+      </c>
+      <c r="X40" t="s">
+        <v>363</v>
+      </c>
       <c r="Y40" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41">
@@ -4297,7 +4917,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4306,26 +4926,22 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="J41" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="K41" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="L41" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
-      <c r="N41" t="s">
-        <v>365</v>
-      </c>
-      <c r="O41" t="s">
-        <v>199</v>
-      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
       <c r="P41" t="n">
         <v>5</v>
       </c>
@@ -4333,20 +4949,26 @@
         <v>5</v>
       </c>
       <c r="R41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
       </c>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>370</v>
+      </c>
+      <c r="X41" t="s">
+        <v>371</v>
+      </c>
       <c r="Y41" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="42">
@@ -4362,7 +4984,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4371,49 +4993,2042 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="J42" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="K42" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="L42" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="O42" t="s">
-        <v>199</v>
+        <v>53</v>
       </c>
       <c r="P42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>378</v>
+      </c>
+      <c r="X42" t="s">
+        <v>379</v>
+      </c>
       <c r="Y42" t="s">
-        <v>372</v>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>381</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>382</v>
+      </c>
+      <c r="J43" t="s">
+        <v>383</v>
+      </c>
+      <c r="K43" t="s">
+        <v>384</v>
+      </c>
+      <c r="L43" t="s">
+        <v>385</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>386</v>
+      </c>
+      <c r="X43" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>389</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>390</v>
+      </c>
+      <c r="J44" t="s">
+        <v>383</v>
+      </c>
+      <c r="K44" t="s">
+        <v>391</v>
+      </c>
+      <c r="L44" t="s">
+        <v>392</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>386</v>
+      </c>
+      <c r="X44" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>394</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>395</v>
+      </c>
+      <c r="J45" t="s">
+        <v>396</v>
+      </c>
+      <c r="K45" t="s">
+        <v>397</v>
+      </c>
+      <c r="L45" t="s">
+        <v>398</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>399</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>400</v>
+      </c>
+      <c r="X45" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>403</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>404</v>
+      </c>
+      <c r="J46" t="s">
+        <v>405</v>
+      </c>
+      <c r="K46" t="s">
+        <v>406</v>
+      </c>
+      <c r="L46" t="s">
+        <v>407</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>408</v>
+      </c>
+      <c r="O46" t="s">
+        <v>126</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>409</v>
+      </c>
+      <c r="X46" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>412</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>413</v>
+      </c>
+      <c r="J47" t="s">
+        <v>405</v>
+      </c>
+      <c r="K47" t="s">
+        <v>414</v>
+      </c>
+      <c r="L47" t="s">
+        <v>415</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>409</v>
+      </c>
+      <c r="X47" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>417</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>418</v>
+      </c>
+      <c r="J48" t="s">
+        <v>419</v>
+      </c>
+      <c r="K48" t="s">
+        <v>420</v>
+      </c>
+      <c r="L48" t="s">
+        <v>421</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>422</v>
+      </c>
+      <c r="O48" t="s">
+        <v>72</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>2</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>423</v>
+      </c>
+      <c r="X48" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>426</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>427</v>
+      </c>
+      <c r="J49" t="s">
+        <v>428</v>
+      </c>
+      <c r="K49" t="s">
+        <v>429</v>
+      </c>
+      <c r="L49" t="s">
+        <v>430</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>431</v>
+      </c>
+      <c r="X49" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>434</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>435</v>
+      </c>
+      <c r="J50" t="s">
+        <v>436</v>
+      </c>
+      <c r="K50" t="s">
+        <v>437</v>
+      </c>
+      <c r="L50" t="s">
+        <v>438</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>439</v>
+      </c>
+      <c r="O50" t="s">
+        <v>72</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>440</v>
+      </c>
+      <c r="X50" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>443</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>444</v>
+      </c>
+      <c r="J51" t="s">
+        <v>445</v>
+      </c>
+      <c r="K51" t="s">
+        <v>446</v>
+      </c>
+      <c r="L51" t="s">
+        <v>447</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>448</v>
+      </c>
+      <c r="O51" t="s">
+        <v>72</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>449</v>
+      </c>
+      <c r="X51" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>452</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>453</v>
+      </c>
+      <c r="J52" t="s">
+        <v>454</v>
+      </c>
+      <c r="K52" t="s">
+        <v>455</v>
+      </c>
+      <c r="L52" t="s">
+        <v>456</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>457</v>
+      </c>
+      <c r="X52" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>460</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>461</v>
+      </c>
+      <c r="J53" t="s">
+        <v>462</v>
+      </c>
+      <c r="K53" t="s">
+        <v>463</v>
+      </c>
+      <c r="L53" t="s">
+        <v>464</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>448</v>
+      </c>
+      <c r="O53" t="s">
+        <v>72</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>465</v>
+      </c>
+      <c r="X53" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>468</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>469</v>
+      </c>
+      <c r="J54" t="s">
+        <v>470</v>
+      </c>
+      <c r="K54" t="s">
+        <v>471</v>
+      </c>
+      <c r="L54" t="s">
+        <v>472</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>448</v>
+      </c>
+      <c r="O54" t="s">
+        <v>72</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>473</v>
+      </c>
+      <c r="X54" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>476</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>477</v>
+      </c>
+      <c r="J55" t="s">
+        <v>478</v>
+      </c>
+      <c r="K55" t="s">
+        <v>479</v>
+      </c>
+      <c r="L55" t="s">
+        <v>480</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>481</v>
+      </c>
+      <c r="X55" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>484</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>485</v>
+      </c>
+      <c r="J56" t="s">
+        <v>486</v>
+      </c>
+      <c r="K56" t="s">
+        <v>487</v>
+      </c>
+      <c r="L56" t="s">
+        <v>488</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>489</v>
+      </c>
+      <c r="O56" t="s">
+        <v>72</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>490</v>
+      </c>
+      <c r="X56" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>493</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>494</v>
+      </c>
+      <c r="J57" t="s">
+        <v>495</v>
+      </c>
+      <c r="K57" t="s">
+        <v>496</v>
+      </c>
+      <c r="L57" t="s">
+        <v>497</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>489</v>
+      </c>
+      <c r="O57" t="s">
+        <v>72</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>498</v>
+      </c>
+      <c r="X57" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>501</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>502</v>
+      </c>
+      <c r="J58" t="s">
+        <v>503</v>
+      </c>
+      <c r="K58" t="s">
+        <v>504</v>
+      </c>
+      <c r="L58" t="s">
+        <v>505</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>506</v>
+      </c>
+      <c r="O58" t="s">
+        <v>72</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>490</v>
+      </c>
+      <c r="X58" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>508</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>509</v>
+      </c>
+      <c r="J59" t="s">
+        <v>510</v>
+      </c>
+      <c r="K59" t="s">
+        <v>511</v>
+      </c>
+      <c r="L59" t="s">
+        <v>512</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>506</v>
+      </c>
+      <c r="O59" t="s">
+        <v>72</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>513</v>
+      </c>
+      <c r="X59" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>516</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>517</v>
+      </c>
+      <c r="J60" t="s">
+        <v>518</v>
+      </c>
+      <c r="K60" t="s">
+        <v>519</v>
+      </c>
+      <c r="L60" t="s">
+        <v>520</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>521</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>513</v>
+      </c>
+      <c r="X60" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>523</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>524</v>
+      </c>
+      <c r="J61" t="s">
+        <v>525</v>
+      </c>
+      <c r="K61" t="s">
+        <v>526</v>
+      </c>
+      <c r="L61" t="s">
+        <v>527</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>528</v>
+      </c>
+      <c r="O61" t="s">
+        <v>72</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>530</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>531</v>
+      </c>
+      <c r="J62" t="s">
+        <v>532</v>
+      </c>
+      <c r="K62" t="s">
+        <v>533</v>
+      </c>
+      <c r="L62" t="s">
+        <v>534</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>535</v>
+      </c>
+      <c r="O62" t="s">
+        <v>72</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>537</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>538</v>
+      </c>
+      <c r="J63" t="s">
+        <v>539</v>
+      </c>
+      <c r="K63" t="s">
+        <v>540</v>
+      </c>
+      <c r="L63" t="s">
+        <v>541</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>542</v>
+      </c>
+      <c r="O63" t="s">
+        <v>196</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>543</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>544</v>
+      </c>
+      <c r="J64" t="s">
+        <v>545</v>
+      </c>
+      <c r="K64" t="s">
+        <v>546</v>
+      </c>
+      <c r="L64" t="s">
+        <v>547</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>548</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>549</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>550</v>
+      </c>
+      <c r="J65" t="s">
+        <v>551</v>
+      </c>
+      <c r="K65" t="s">
+        <v>552</v>
+      </c>
+      <c r="L65" t="s">
+        <v>553</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>554</v>
+      </c>
+      <c r="O65" t="s">
+        <v>196</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>555</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>556</v>
+      </c>
+      <c r="J66" t="s">
+        <v>557</v>
+      </c>
+      <c r="K66" t="s">
+        <v>558</v>
+      </c>
+      <c r="L66" t="s">
+        <v>559</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>560</v>
+      </c>
+      <c r="O66" t="s">
+        <v>72</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>561</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>562</v>
+      </c>
+      <c r="J67" t="s">
+        <v>563</v>
+      </c>
+      <c r="K67" t="s">
+        <v>564</v>
+      </c>
+      <c r="L67" t="s">
+        <v>565</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>566</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>567</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>568</v>
+      </c>
+      <c r="J68" t="s">
+        <v>569</v>
+      </c>
+      <c r="K68" t="s">
+        <v>570</v>
+      </c>
+      <c r="L68" t="s">
+        <v>571</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>572</v>
+      </c>
+      <c r="O68" t="s">
+        <v>72</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>573</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>574</v>
+      </c>
+      <c r="J69" t="s">
+        <v>575</v>
+      </c>
+      <c r="K69" t="s">
+        <v>576</v>
+      </c>
+      <c r="L69" t="s">
+        <v>577</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>578</v>
+      </c>
+      <c r="O69" t="s">
+        <v>126</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>580</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>581</v>
+      </c>
+      <c r="J70" t="s">
+        <v>582</v>
+      </c>
+      <c r="K70" t="s">
+        <v>583</v>
+      </c>
+      <c r="L70" t="s">
+        <v>584</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>585</v>
+      </c>
+      <c r="O70" t="s">
+        <v>196</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>35283</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>586</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>587</v>
+      </c>
+      <c r="J71" t="s">
+        <v>588</v>
+      </c>
+      <c r="K71" t="s">
+        <v>589</v>
+      </c>
+      <c r="L71" t="s">
+        <v>590</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>591</v>
+      </c>
+      <c r="O71" t="s">
+        <v>196</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>592</v>
       </c>
     </row>
   </sheetData>
